--- a/Examples/Børne Klub 100/test_kid2.xlsx
+++ b/Examples/Børne Klub 100/test_kid2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\Examples\Børne Klub 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2EE11E31671A170A0A2FD5705C6B582E43346949" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E5065834-6707-4C12-9BE2-2B5055B7331E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_2EE11E31671A170A0A2FD5705C6B582E43346949" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B790E2B1-9D00-4B87-AF22-C60B127B31FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sange" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="386">
   <si>
     <t>Shoutout titel</t>
   </si>
@@ -1534,22 +1534,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:C97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="67.109375" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="67.1171875" customWidth="1"/>
+    <col min="2" max="2" width="64.3515625" customWidth="1"/>
+    <col min="3" max="3" width="19.52734375" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
+    <row r="1" spans="1:7" ht="12.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1568,8 +1568,11 @@
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.2">
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2">
+    <row r="3" spans="1:7" ht="12.7">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:7" ht="12.7">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1613,8 +1616,11 @@
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.2">
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.7">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2">
+    <row r="6" spans="1:7" ht="12.7">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2">
+    <row r="7" spans="1:7" ht="12.7">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.2">
+    <row r="8" spans="1:7" ht="12.7">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.2">
+    <row r="9" spans="1:7" ht="12.7">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.2">
+    <row r="10" spans="1:7" ht="12.7">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.2">
+    <row r="11" spans="1:7" ht="12.7">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2">
+    <row r="12" spans="1:7" ht="12.7">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.2">
+    <row r="13" spans="1:7" ht="12.7">
       <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.2">
+    <row r="14" spans="1:7" ht="12.7">
       <c r="A14" s="7" t="s">
         <v>89</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>385</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.2">
+    <row r="16" spans="1:7" ht="12.7">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.2">
+    <row r="17" spans="1:6" ht="12.7">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.2">
+    <row r="18" spans="1:6" ht="12.7">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.2">
+    <row r="19" spans="1:6" ht="12.7">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.2">
+    <row r="20" spans="1:6" ht="12.7">
       <c r="A20" s="7" t="s">
         <v>109</v>
       </c>
@@ -1856,7 +1862,7 @@
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="13.2">
+    <row r="22" spans="1:6" ht="12.7">
       <c r="A22" s="2" t="s">
         <v>116</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.2">
+    <row r="23" spans="1:6" ht="12.7">
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.2">
+    <row r="24" spans="1:6" ht="12.7">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.2">
+    <row r="25" spans="1:6" ht="12.7">
       <c r="A25" s="2" t="s">
         <v>123</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.2">
+    <row r="26" spans="1:6" ht="12.7">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.2">
+    <row r="27" spans="1:6" ht="12.7">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.8">
+    <row r="28" spans="1:6" ht="13.7">
       <c r="A28" s="9" t="s">
         <v>130</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2">
+    <row r="29" spans="1:6" ht="12.7">
       <c r="A29" s="2" t="s">
         <v>135</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2">
+    <row r="30" spans="1:6" ht="12.7">
       <c r="A30" s="2" t="s">
         <v>138</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2">
+    <row r="31" spans="1:6" ht="12.7">
       <c r="A31" s="7" t="s">
         <v>140</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.2">
+    <row r="32" spans="1:6" ht="12.7">
       <c r="A32" s="7" t="s">
         <v>142</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2">
+    <row r="33" spans="1:6" ht="12.7">
       <c r="A33" s="2" t="s">
         <v>147</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2">
+    <row r="34" spans="1:6" ht="12.7">
       <c r="A34" s="2" t="s">
         <v>149</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2">
+    <row r="35" spans="1:6" ht="12.7">
       <c r="A35" s="2" t="s">
         <v>154</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.2">
+    <row r="36" spans="1:6" ht="12.7">
       <c r="A36" s="2" t="s">
         <v>156</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2">
+    <row r="37" spans="1:6" ht="12.7">
       <c r="A37" s="2" t="s">
         <v>161</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2">
+    <row r="38" spans="1:6" ht="12.7">
       <c r="A38" s="2" t="s">
         <v>166</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.2">
+    <row r="39" spans="1:6" ht="12.7">
       <c r="A39" s="7" t="s">
         <v>168</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.2">
+    <row r="40" spans="1:6" ht="12.7">
       <c r="A40" s="2" t="s">
         <v>172</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2">
+    <row r="41" spans="1:6" ht="12.7">
       <c r="A41" s="2" t="s">
         <v>176</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2">
+    <row r="42" spans="1:6" ht="12.7">
       <c r="A42" s="2" t="s">
         <v>179</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2">
+    <row r="43" spans="1:6" ht="12.7">
       <c r="A43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.2">
+    <row r="44" spans="1:6" ht="12.7">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2">
+    <row r="45" spans="1:6" ht="12.7">
       <c r="A45" s="7" t="s">
         <v>189</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2">
+    <row r="46" spans="1:6" ht="12.7">
       <c r="A46" s="7" t="s">
         <v>195</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.2">
+    <row r="47" spans="1:6" ht="12.7">
       <c r="A47" s="2" t="s">
         <v>199</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.2">
+    <row r="48" spans="1:6" ht="12.7">
       <c r="A48" s="2" t="s">
         <v>201</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.2">
+    <row r="49" spans="1:6" ht="12.7">
       <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.2">
+    <row r="50" spans="1:6" ht="12.7">
       <c r="A50" s="2" t="s">
         <v>207</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.2">
+    <row r="51" spans="1:6" ht="12.7">
       <c r="A51" s="2" t="s">
         <v>210</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.2">
+    <row r="52" spans="1:6" ht="12.7">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.2">
+    <row r="53" spans="1:6" ht="12.7">
       <c r="A53" s="2" t="s">
         <v>215</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.2">
+    <row r="54" spans="1:6" ht="12.7">
       <c r="A54" s="2" t="s">
         <v>218</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.2">
+    <row r="56" spans="1:6" ht="12.7">
       <c r="A56" s="7" t="s">
         <v>220</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.2">
+    <row r="57" spans="1:6" ht="12.7">
       <c r="A57" s="2" t="s">
         <v>224</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.2">
+    <row r="58" spans="1:6" ht="12.7">
       <c r="A58" s="2" t="s">
         <v>226</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.2">
+    <row r="59" spans="1:6" ht="12.7">
       <c r="A59" s="2" t="s">
         <v>228</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.2">
+    <row r="60" spans="1:6" ht="12.7">
       <c r="A60" s="7" t="s">
         <v>234</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.2">
+    <row r="61" spans="1:6" ht="12.7">
       <c r="A61" s="2" t="s">
         <v>236</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.2">
+    <row r="62" spans="1:6" ht="12.7">
       <c r="A62" s="2" t="s">
         <v>239</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.2">
+    <row r="63" spans="1:6" ht="12.7">
       <c r="A63" s="2" t="s">
         <v>243</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.2">
+    <row r="64" spans="1:6" ht="12.7">
       <c r="A64" s="2" t="s">
         <v>246</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.2">
+    <row r="65" spans="1:6" ht="12.7">
       <c r="A65" s="7" t="s">
         <v>249</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.2">
+    <row r="66" spans="1:6" ht="12.7">
       <c r="A66" s="2" t="s">
         <v>251</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.2">
+    <row r="67" spans="1:6" ht="12.7">
       <c r="A67" s="2" t="s">
         <v>255</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13.2">
+    <row r="68" spans="1:6" ht="12.7">
       <c r="A68" s="2" t="s">
         <v>257</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.2">
+    <row r="69" spans="1:6" ht="12.7">
       <c r="A69" s="2" t="s">
         <v>262</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.2">
+    <row r="70" spans="1:6" ht="12.7">
       <c r="A70" s="2" t="s">
         <v>265</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.2">
+    <row r="71" spans="1:6" ht="12.7">
       <c r="A71" s="2" t="s">
         <v>270</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.2">
+    <row r="72" spans="1:6" ht="12.7">
       <c r="A72" s="2" t="s">
         <v>273</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.2">
+    <row r="73" spans="1:6" ht="12.7">
       <c r="A73" s="7" t="s">
         <v>275</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="13.2">
+    <row r="74" spans="1:6" ht="12.7">
       <c r="A74" s="2" t="s">
         <v>278</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.2">
+    <row r="75" spans="1:6" ht="12.7">
       <c r="A75" s="7" t="s">
         <v>282</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.2">
+    <row r="76" spans="1:6" ht="12.7">
       <c r="A76" s="2" t="s">
         <v>284</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.2">
+    <row r="77" spans="1:6" ht="12.7">
       <c r="A77" s="2" t="s">
         <v>287</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13.2">
+    <row r="78" spans="1:6" ht="12.7">
       <c r="A78" s="2" t="s">
         <v>292</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.2">
+    <row r="79" spans="1:6" ht="12.7">
       <c r="A79" s="2" t="s">
         <v>294</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="13.2">
+    <row r="80" spans="1:6" ht="12.7">
       <c r="A80" s="2" t="s">
         <v>296</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.2">
+    <row r="81" spans="1:6" ht="12.7">
       <c r="A81" s="2" t="s">
         <v>298</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13.2">
+    <row r="82" spans="1:6" ht="12.7">
       <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="13.2">
+    <row r="83" spans="1:6" ht="12.7">
       <c r="A83" s="2" t="s">
         <v>302</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13.2">
+    <row r="84" spans="1:6" ht="12.7">
       <c r="A84" s="2" t="s">
         <v>304</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.2">
+    <row r="85" spans="1:6" ht="12.7">
       <c r="A85" s="7" t="s">
         <v>306</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.2">
+    <row r="86" spans="1:6" ht="12.7">
       <c r="A86" s="2" t="s">
         <v>308</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="13.2">
+    <row r="87" spans="1:6" ht="12.7">
       <c r="A87" s="2" t="s">
         <v>310</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="13.2">
+    <row r="88" spans="1:6" ht="12.7">
       <c r="A88" s="2" t="s">
         <v>312</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.2">
+    <row r="90" spans="1:6" ht="12.7">
       <c r="A90" s="7" t="s">
         <v>314</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13.2">
+    <row r="91" spans="1:6" ht="12.7">
       <c r="A91" s="2" t="s">
         <v>316</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.2">
+    <row r="92" spans="1:6" ht="12.7">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
@@ -2859,7 +2865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.2">
+    <row r="93" spans="1:6" ht="12.7">
       <c r="A93" s="7" t="s">
         <v>320</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="13.2">
+    <row r="96" spans="1:6" ht="12.7">
       <c r="A96" s="2" t="s">
         <v>322</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="13.2">
+    <row r="98" spans="1:6" ht="12.7">
       <c r="A98" s="2" t="s">
         <v>324</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="13.2">
+    <row r="99" spans="1:6" ht="12.7">
       <c r="A99" s="2" t="s">
         <v>326</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="13.2">
+    <row r="100" spans="1:6" ht="12.7">
       <c r="A100" s="2" t="s">
         <v>328</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13.2">
+    <row r="101" spans="1:6" ht="12.7">
       <c r="A101" s="2" t="s">
         <v>330</v>
       </c>
@@ -2982,12 +2988,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="13.2">
+    <row r="103" spans="1:6" ht="12.7">
       <c r="A103" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="13.2">
+    <row r="104" spans="1:6" ht="12.7">
       <c r="A104" s="2" t="s">
         <v>334</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="13.2">
+    <row r="105" spans="1:6" ht="12.7">
       <c r="A105" s="2" t="s">
         <v>336</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="13.2">
+    <row r="106" spans="1:6" ht="12.7">
       <c r="A106" s="2" t="s">
         <v>339</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="13.2">
+    <row r="107" spans="1:6" ht="12.7">
       <c r="A107" s="7" t="s">
         <v>341</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13.2">
+    <row r="108" spans="1:6" ht="12.7">
       <c r="A108" s="2" t="s">
         <v>343</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="13.2">
+    <row r="109" spans="1:6" ht="12.7">
       <c r="A109" s="2" t="s">
         <v>345</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="13.2">
+    <row r="110" spans="1:6" ht="12.7">
       <c r="A110" s="2" t="s">
         <v>347</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="13.2">
+    <row r="111" spans="1:6" ht="12.7">
       <c r="A111" s="2" t="s">
         <v>349</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="13.2">
+    <row r="112" spans="1:6" ht="12.7">
       <c r="A112" s="7" t="s">
         <v>351</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.2">
+    <row r="113" spans="1:6" ht="12.7">
       <c r="A113" s="2" t="s">
         <v>353</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.2">
+    <row r="114" spans="1:6" ht="12.7">
       <c r="A114" s="2" t="s">
         <v>355</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.2">
+    <row r="115" spans="1:6" ht="12.7">
       <c r="A115" s="2" t="s">
         <v>357</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.2">
+    <row r="116" spans="1:6" ht="12.7">
       <c r="A116" s="2" t="s">
         <v>359</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.2">
+    <row r="117" spans="1:6" ht="12.7">
       <c r="A117" s="2" t="s">
         <v>361</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.2">
+    <row r="118" spans="1:6" ht="12.7">
       <c r="A118" s="2" t="s">
         <v>363</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.2">
+    <row r="119" spans="1:6" ht="12.7">
       <c r="A119" s="2" t="s">
         <v>365</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="13.2">
+    <row r="120" spans="1:6" ht="12.7">
       <c r="A120" s="2" t="s">
         <v>367</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13.2">
+    <row r="121" spans="1:6" ht="12.7">
       <c r="A121" s="2" t="s">
         <v>369</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="13.2">
+    <row r="122" spans="1:6" ht="12.7">
       <c r="A122" s="2" t="s">
         <v>371</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="13.2">
+    <row r="123" spans="1:6" ht="12.7">
       <c r="A123" s="2" t="s">
         <v>373</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="13.2">
+    <row r="124" spans="1:6" ht="12.7">
       <c r="A124" s="2" t="s">
         <v>375</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13.2">
+    <row r="125" spans="1:6" ht="12.7">
       <c r="A125" s="2" t="s">
         <v>377</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13.2">
+    <row r="126" spans="1:6" ht="12.7">
       <c r="A126" s="2" t="s">
         <v>379</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13.2">
+    <row r="127" spans="1:6" ht="12.7">
       <c r="A127" s="2" t="s">
         <v>381</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.2">
+    <row r="128" spans="1:6" ht="12.7">
       <c r="A128" s="2" t="s">
         <v>383</v>
       </c>
@@ -3456,22 +3462,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.87890625" customWidth="1"/>
+    <col min="2" max="2" width="21.41015625" customWidth="1"/>
+    <col min="4" max="4" width="53.41015625" customWidth="1"/>
+    <col min="7" max="7" width="12.1171875" customWidth="1"/>
+    <col min="8" max="8" width="41.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2">
+    <row r="1" spans="1:9" ht="12.7">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3500,30 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.2">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5">
-        <v>24</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.2">
+    <row r="3" spans="1:9" ht="12.7">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -3548,7 +3531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.2">
+    <row r="4" spans="1:9" ht="12.7">
       <c r="A4" s="5" t="s">
         <v>272</v>
       </c>
@@ -3573,7 +3556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.2">
+    <row r="5" spans="1:9" ht="12.7">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -3596,7 +3579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.2">
+    <row r="6" spans="1:9" ht="12.7">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3617,7 +3600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.2">
+    <row r="7" spans="1:9" ht="12.7">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -3643,7 +3626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.2">
+    <row r="8" spans="1:9" ht="12.7">
       <c r="A8" s="5" t="s">
         <v>213</v>
       </c>
@@ -3666,7 +3649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.2">
+    <row r="9" spans="1:9" ht="12.7">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3693,7 +3676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.2">
+    <row r="10" spans="1:9" ht="12.7">
       <c r="A10" s="5" t="s">
         <v>120</v>
       </c>
@@ -3720,51 +3703,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.2">
+    <row r="11" spans="1:9" ht="12.7">
       <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.7">
+      <c r="A12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <f>13*60+24</f>
         <v>804</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <f>13*60+35</f>
         <v>815</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.2">
-      <c r="A12" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
-      </c>
-      <c r="F12" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -3772,40 +3753,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.2">
-      <c r="A13" s="5" t="s">
-        <v>186</v>
+    <row r="13" spans="1:9" ht="12.7">
+      <c r="A13" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="E13" s="5">
-        <v>175</v>
-      </c>
-      <c r="F13" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F13" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.2">
+    <row r="14" spans="1:9" ht="12.7">
       <c r="A14" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -3814,45 +3799,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.2">
+    <row r="15" spans="1:9" ht="12.7">
       <c r="A15" s="5" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E15" s="5">
-        <v>185</v>
-      </c>
-      <c r="F15" s="5">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.2">
+    <row r="16" spans="1:9" ht="12.7">
       <c r="A16" s="5" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3860,24 +3843,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.2">
+    <row r="17" spans="1:9" ht="12.7">
       <c r="A17" s="5" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="15" t="s">
-        <v>217</v>
+      <c r="D17" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="E17" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3885,9 +3866,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.2">
+    <row r="18" spans="1:9" ht="12.7">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>113</v>
@@ -3897,12 +3878,12 @@
         <v>217</v>
       </c>
       <c r="E18" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F18" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3910,22 +3891,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.2">
+    <row r="19" spans="1:9" ht="12.7">
       <c r="A19" s="5" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>160</v>
+      <c r="D19" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E19" s="5">
-        <v>28</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F19" s="5">
-        <v>38</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3933,22 +3916,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.2">
+    <row r="20" spans="1:9" ht="12.7">
       <c r="A20" s="5" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3956,22 +3939,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.2">
+    <row r="21" spans="1:9" ht="12.7">
       <c r="A21" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="15" t="s">
-        <v>261</v>
+      <c r="D21" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="E21" s="5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3979,22 +3962,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.2">
+    <row r="22" spans="1:9" ht="12.7">
       <c r="A22" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -4002,64 +3985,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.2">
+    <row r="23" spans="1:9" ht="12.7">
       <c r="A23" s="5" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="E23" s="5">
-        <v>6</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F23" s="5">
+        <v>24</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.2">
+      <c r="I23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.7">
       <c r="A24" s="5" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E24" s="5">
-        <v>34</v>
-      </c>
-      <c r="F24" s="5">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.2">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.7">
       <c r="A25" s="5" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="E25" s="5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4067,257 +4050,255 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.2">
+    <row r="26" spans="1:9" ht="12.7">
       <c r="A26" s="5" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E26" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F26" s="5">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.2">
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.7">
       <c r="A27" s="5" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E27" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" ht="13.2">
+    <row r="28" spans="1:9" ht="12.7">
       <c r="A28" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F28" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.7">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>228</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="5" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2">
-      <c r="A29" s="5" t="s">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.7">
+      <c r="A30" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <f>3*60+39</f>
         <v>219</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2">
-      <c r="A30" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="5">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5">
-        <v>18</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="13.2">
+    <row r="31" spans="1:9" ht="12.7">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="E31" s="5">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="F31" s="5">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" ht="13.2">
+    <row r="32" spans="1:9" ht="12.7">
       <c r="A32" s="5" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="E32" s="5">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="F32" s="5">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" ht="13.2">
+    <row r="33" spans="1:9" ht="12.7">
       <c r="A33" s="5" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E33" s="5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F33" s="5">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="13.2">
+    <row r="34" spans="1:9" ht="12.7">
       <c r="A34" s="5" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="E34" s="5">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="13.2">
+    <row r="35" spans="1:9" ht="12.7">
       <c r="A35" s="5" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="F35" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="13.2">
+    <row r="36" spans="1:9" ht="12.7">
       <c r="A36" s="5" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="E36" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F36" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="12.7">
       <c r="A37" s="5" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>113</v>
@@ -4329,98 +4310,102 @@
         <v>115</v>
       </c>
       <c r="E37" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F37" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="13.2">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" s="14" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="E38" s="5">
-        <v>3</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F38" s="5">
-        <v>9</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="12.7">
       <c r="A39" s="5" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="E39" s="5">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5">
-        <v>87</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E40" s="5">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F40" s="5">
-        <v>158</v>
-      </c>
-      <c r="G40" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="E41" s="5">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="F41" s="5">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -4428,66 +4413,64 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="E42" s="5">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F43" s="5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="5">
+        <v>39</v>
+      </c>
+      <c r="F44" s="5">
         <v>49</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="5">
-        <v>266</v>
-      </c>
-      <c r="F44" s="5">
-        <v>277</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -4495,22 +4478,22 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15" t="s">
-        <v>217</v>
+        <v>49</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F45" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -4518,65 +4501,64 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="14" t="s">
-        <v>59</v>
+      <c r="D46" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E46" s="5">
-        <v>57</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F46" s="5">
-        <v>66</v>
-      </c>
-      <c r="G46" s="5"/>
+        <f>3*60+50</f>
+        <v>230</v>
+      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="E47" s="5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F47" s="5">
-        <v>72</v>
-      </c>
-      <c r="G47" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="E48" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>60</v>
       </c>
       <c r="F48" s="5">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -4584,20 +4566,23 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15" t="s">
-        <v>204</v>
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E49" s="5">
-        <v>42</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F49" s="5">
-        <v>47</v>
+        <v>605</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -4605,24 +4590,20 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="15" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E50" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5">
-        <f>E50+12</f>
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -4630,24 +4611,24 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>115</v>
+        <v>13</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E51" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F51" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>E51+12</f>
+        <v>573</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -4655,24 +4636,24 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E52" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F52" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -4680,22 +4661,24 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D53" s="14" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="E53" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F53" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -4703,36 +4686,40 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="E54" s="5">
-        <v>175</v>
-      </c>
-      <c r="F54" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F54" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -4741,41 +4728,39 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E56" s="5">
-        <v>185</v>
-      </c>
-      <c r="F56" s="5">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="E57" s="5">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="F57" s="5">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -4783,22 +4768,20 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="15" t="s">
-        <v>217</v>
+      <c r="D58" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="E58" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F58" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -4806,7 +4789,7 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>113</v>
@@ -4816,12 +4799,12 @@
         <v>217</v>
       </c>
       <c r="E59" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F59" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4829,20 +4812,22 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="14" t="s">
-        <v>160</v>
+      <c r="D60" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E60" s="5">
-        <v>28</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F60" s="5">
-        <v>38</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -4850,20 +4835,20 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F61" s="5">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -4871,20 +4856,20 @@
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="15" t="s">
-        <v>261</v>
+      <c r="D62" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="E62" s="5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -4892,20 +4877,20 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="15" t="s">
         <v>261</v>
       </c>
       <c r="E63" s="5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F63" s="5">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -4913,60 +4898,60 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="E64" s="5">
-        <v>6</v>
-      </c>
-      <c r="F64" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F64" s="5">
+        <v>24</v>
+      </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E65" s="5">
-        <v>34</v>
-      </c>
-      <c r="F65" s="5">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="E66" s="5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F66" s="5">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -4974,20 +4959,20 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E67" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F67" s="5">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -4995,24 +4980,20 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="F68" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -5020,69 +5001,73 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F69" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D70" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>228</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="5" t="s">
+      <c r="G70" s="13"/>
+      <c r="H70" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A70" s="5" t="s">
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="5">
         <f>3*60+39</f>
         <v>219</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="5">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5">
-        <v>18</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -5090,20 +5075,20 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="E72" s="5">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -5111,20 +5096,20 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="E73" s="5">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="F73" s="5">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -5132,20 +5117,20 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E74" s="5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F74" s="5">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -5153,20 +5138,20 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="E75" s="5">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="F75" s="5">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -5174,22 +5159,20 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="E76" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="F76" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -5197,24 +5180,22 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="14" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="E77" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F77" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -5222,7 +5203,7 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>113</v>
@@ -5234,12 +5215,12 @@
         <v>115</v>
       </c>
       <c r="E78" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F78" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -5247,20 +5228,24 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C79" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D79" s="14" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="E79" s="5">
-        <v>3</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F79" s="5">
-        <v>9</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -5268,64 +5253,64 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="E80" s="5">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F80" s="5">
-        <v>87</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E81" s="5">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F81" s="5">
-        <v>158</v>
-      </c>
-      <c r="G81" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="E82" s="5">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="F82" s="5">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -5333,66 +5318,64 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="E83" s="5">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F83" s="5">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E84" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F84" s="5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="5">
+        <v>39</v>
+      </c>
+      <c r="F85" s="5">
         <v>49</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="5">
-        <v>266</v>
-      </c>
-      <c r="F85" s="5">
-        <v>277</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -5400,22 +5383,22 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="15" t="s">
-        <v>217</v>
+        <v>49</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E86" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F86" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -5423,20 +5406,22 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="14" t="s">
-        <v>59</v>
+      <c r="D87" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E87" s="5">
-        <v>57</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F87" s="5">
-        <v>66</v>
+        <f>3*60+50</f>
+        <v>230</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -5444,20 +5429,20 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="E88" s="5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F88" s="5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -5465,23 +5450,20 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="14" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="E89" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>60</v>
       </c>
       <c r="F89" s="5">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -5489,20 +5471,23 @@
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15" t="s">
-        <v>204</v>
+        <v>113</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E90" s="5">
-        <v>42</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F90" s="5">
-        <v>47</v>
+        <v>605</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -5510,24 +5495,20 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="15" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E91" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="F91" s="5">
-        <f>E91+12</f>
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -5535,24 +5516,24 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>115</v>
+        <v>13</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F92" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>E92+12</f>
+        <v>573</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -5560,24 +5541,24 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E93" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F93" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -5585,22 +5566,24 @@
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D94" s="14" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="E94" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F94" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -5608,36 +5591,40 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="E95" s="5">
-        <v>175</v>
-      </c>
-      <c r="F95" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F95" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E96" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -5646,45 +5633,39 @@
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="E97" s="5">
-        <v>23</v>
-      </c>
-      <c r="F97" s="5">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="14" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="E98" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="F98" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -5692,347 +5673,372 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F99" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D100" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E100" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F100" s="5">
         <v>228</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="5" t="s">
+      <c r="G100" s="13"/>
+      <c r="H100" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A100" s="5" t="s">
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="15" t="s">
+      <c r="C101" s="13"/>
+      <c r="D101" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E101" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F101" s="5">
         <f>3*60+39</f>
         <v>219</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" ht="13.2">
-      <c r="A101" s="5" t="s">
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" ht="12.7">
+      <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14" t="s">
+      <c r="C102" s="13"/>
+      <c r="D102" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E102" s="5">
         <v>686</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F102" s="5">
         <v>707</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="5" t="s">
+      <c r="G102" s="13"/>
+      <c r="H102" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I101" s="13"/>
-    </row>
-    <row r="103" spans="1:9" ht="13.2">
-      <c r="A103" s="1" t="s">
+      <c r="I102" s="13"/>
+    </row>
+    <row r="104" spans="1:9" ht="12.7">
+      <c r="A104" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="13.2">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:9" ht="12.7">
+      <c r="A105" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E105" s="2">
         <v>60</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F105" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="13.2">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:9" ht="12.7">
+      <c r="A106" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E105" s="2">
-        <v>18</v>
-      </c>
-      <c r="F105" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.2">
-      <c r="A106" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="6" t="s">
         <v>261</v>
       </c>
       <c r="E106" s="2">
+        <v>18</v>
+      </c>
+      <c r="F106" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="12.7">
+      <c r="A107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E107" s="2">
         <v>81</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F107" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.2">
-      <c r="A107" s="2" t="s">
+    <row r="108" spans="1:9" ht="12.7">
+      <c r="A108" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E108" s="2">
         <v>0</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F108" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="13.2">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:9" ht="12.7">
+      <c r="A109" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E109" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F109" s="5">
         <f>3*60+50</f>
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="13.2">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:9" ht="12.7">
+      <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E110" s="5">
         <f>1*60+27</f>
         <v>87</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F110" s="5">
         <f>1*60+31</f>
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="13.2">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:9" ht="12.7">
+      <c r="A111" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E110" s="2">
-        <v>82</v>
-      </c>
-      <c r="F110" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="13.2">
-      <c r="A111" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E111" s="2">
+        <v>82</v>
+      </c>
+      <c r="F111" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="12.7">
+      <c r="A112" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E111" s="2">
-        <v>25</v>
-      </c>
-      <c r="F111" s="2">
+      <c r="E112" s="2">
+        <v>25</v>
+      </c>
+      <c r="F112" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.2">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:6" ht="12.7">
+      <c r="A113" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D113" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E113" s="2">
         <v>60</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F113" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D104" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D105" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D106" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D107" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D108" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D109" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D110" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D112" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D47" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
-    <hyperlink ref="D88" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
-    <hyperlink ref="D97" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
-    <hyperlink ref="D100" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
-    <hyperlink ref="D99" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
-    <hyperlink ref="D98" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
-    <hyperlink ref="D86" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
-    <hyperlink ref="D94" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
-    <hyperlink ref="D90" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
-    <hyperlink ref="D95" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
-    <hyperlink ref="D96" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
-    <hyperlink ref="D93" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
-    <hyperlink ref="D89" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
-    <hyperlink ref="D92" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
-    <hyperlink ref="D87" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
-    <hyperlink ref="D85" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
-    <hyperlink ref="D91" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
-    <hyperlink ref="D82" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
-    <hyperlink ref="D74" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
-    <hyperlink ref="D58" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
-    <hyperlink ref="D45" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
-    <hyperlink ref="D61" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
-    <hyperlink ref="D62" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
-    <hyperlink ref="D63" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
-    <hyperlink ref="D57" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
-    <hyperlink ref="D53" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
-    <hyperlink ref="D73" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
-    <hyperlink ref="D66" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
-    <hyperlink ref="D79" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
-    <hyperlink ref="D70" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
-    <hyperlink ref="D59" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
-    <hyperlink ref="D49" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
-    <hyperlink ref="D65" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
-    <hyperlink ref="D71" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
-    <hyperlink ref="D76" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
-    <hyperlink ref="D64" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
-    <hyperlink ref="D54" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
-    <hyperlink ref="D78" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
-    <hyperlink ref="D80" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
-    <hyperlink ref="D55" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
-    <hyperlink ref="D67" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
-    <hyperlink ref="D60" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
-    <hyperlink ref="D81" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
-    <hyperlink ref="D52" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
-    <hyperlink ref="D48" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
-    <hyperlink ref="D69" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
-    <hyperlink ref="D68" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
-    <hyperlink ref="D51" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
-    <hyperlink ref="D77" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
-    <hyperlink ref="D83" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
-    <hyperlink ref="D56" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
-    <hyperlink ref="D72" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
-    <hyperlink ref="D75" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
-    <hyperlink ref="D46" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
-    <hyperlink ref="D44" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
-    <hyperlink ref="D84" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
-    <hyperlink ref="D50" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
-    <hyperlink ref="D41" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
-    <hyperlink ref="D33" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
-    <hyperlink ref="D17" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
+    <hyperlink ref="D105" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D106" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D107" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D108" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D109" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D110" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D111" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D112" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D113" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D48" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
+    <hyperlink ref="D89" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
+    <hyperlink ref="D98" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
+    <hyperlink ref="D101" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
+    <hyperlink ref="D100" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
+    <hyperlink ref="D99" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
+    <hyperlink ref="D87" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
+    <hyperlink ref="D95" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
+    <hyperlink ref="D91" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
+    <hyperlink ref="D96" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
+    <hyperlink ref="D97" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
+    <hyperlink ref="D94" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
+    <hyperlink ref="D90" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
+    <hyperlink ref="D93" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
+    <hyperlink ref="D88" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
+    <hyperlink ref="D86" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
+    <hyperlink ref="D92" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
+    <hyperlink ref="D83" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
+    <hyperlink ref="D75" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
+    <hyperlink ref="D46" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
+    <hyperlink ref="D63" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
+    <hyperlink ref="D64" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
+    <hyperlink ref="D58" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
+    <hyperlink ref="D54" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
+    <hyperlink ref="D74" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
+    <hyperlink ref="D67" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
+    <hyperlink ref="D60" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
+    <hyperlink ref="D50" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
+    <hyperlink ref="D66" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
+    <hyperlink ref="D72" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
+    <hyperlink ref="D77" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
+    <hyperlink ref="D65" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
+    <hyperlink ref="D55" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
+    <hyperlink ref="D79" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
+    <hyperlink ref="D81" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
+    <hyperlink ref="D68" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
+    <hyperlink ref="D61" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
+    <hyperlink ref="D82" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
+    <hyperlink ref="D53" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
+    <hyperlink ref="D49" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
+    <hyperlink ref="D70" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
+    <hyperlink ref="D69" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
+    <hyperlink ref="D52" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
+    <hyperlink ref="D78" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
+    <hyperlink ref="D84" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
+    <hyperlink ref="D57" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
+    <hyperlink ref="D73" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
+    <hyperlink ref="D76" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
+    <hyperlink ref="D47" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
+    <hyperlink ref="D45" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
+    <hyperlink ref="D85" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
+    <hyperlink ref="D51" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
+    <hyperlink ref="D42" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
+    <hyperlink ref="D34" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
+    <hyperlink ref="D18" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
     <hyperlink ref="D4" r:id="rId70" xr:uid="{0778F8EA-5028-4958-93D5-0BDAC327D879}"/>
-    <hyperlink ref="D20" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
-    <hyperlink ref="D21" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
-    <hyperlink ref="D22" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
-    <hyperlink ref="D16" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
-    <hyperlink ref="D12" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
-    <hyperlink ref="D32" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
-    <hyperlink ref="D25" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
-    <hyperlink ref="D38" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
-    <hyperlink ref="D29" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
-    <hyperlink ref="D18" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
+    <hyperlink ref="D21" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
+    <hyperlink ref="D22" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
+    <hyperlink ref="D23" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
+    <hyperlink ref="D17" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
+    <hyperlink ref="D13" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
+    <hyperlink ref="D33" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
+    <hyperlink ref="D26" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
+    <hyperlink ref="D39" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
+    <hyperlink ref="D30" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
+    <hyperlink ref="D19" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
     <hyperlink ref="D8" r:id="rId81" xr:uid="{DED7A551-0F69-452B-99FA-F4FD4655ADA3}"/>
-    <hyperlink ref="D24" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
-    <hyperlink ref="D30" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
-    <hyperlink ref="D35" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
-    <hyperlink ref="D23" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
-    <hyperlink ref="D13" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
-    <hyperlink ref="D37" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
-    <hyperlink ref="D39" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
-    <hyperlink ref="D14" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
-    <hyperlink ref="D26" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
-    <hyperlink ref="D19" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
-    <hyperlink ref="D40" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
-    <hyperlink ref="D11" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
+    <hyperlink ref="D25" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
+    <hyperlink ref="D36" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
+    <hyperlink ref="D24" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
+    <hyperlink ref="D14" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
+    <hyperlink ref="D38" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
+    <hyperlink ref="D40" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
+    <hyperlink ref="D15" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
+    <hyperlink ref="D27" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
+    <hyperlink ref="D20" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
+    <hyperlink ref="D41" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
+    <hyperlink ref="D12" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
     <hyperlink ref="D7" r:id="rId94" xr:uid="{05FCE2E9-4D4A-42C7-AF59-FAD60736A926}"/>
-    <hyperlink ref="D28" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
-    <hyperlink ref="D27" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
+    <hyperlink ref="D29" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
+    <hyperlink ref="D28" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
     <hyperlink ref="D10" r:id="rId97" xr:uid="{F79EBC96-0ECE-4254-BA5F-0AC0D0D65286}"/>
-    <hyperlink ref="D36" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
-    <hyperlink ref="D101" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
-    <hyperlink ref="D42" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
-    <hyperlink ref="D15" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
-    <hyperlink ref="D31" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
-    <hyperlink ref="D34" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
+    <hyperlink ref="D37" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
+    <hyperlink ref="D102" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
+    <hyperlink ref="D43" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
+    <hyperlink ref="D16" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
+    <hyperlink ref="D32" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
+    <hyperlink ref="D35" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
     <hyperlink ref="D5" r:id="rId104" xr:uid="{C49D2F82-6F55-4099-AE47-E14FAA61B9B7}"/>
     <hyperlink ref="D3" r:id="rId105" xr:uid="{3F224D90-2D39-4595-BDC2-96DA84D50B74}"/>
-    <hyperlink ref="D2" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
-    <hyperlink ref="D43" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
+    <hyperlink ref="D11" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
+    <hyperlink ref="D44" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
     <hyperlink ref="D6" r:id="rId108" xr:uid="{04015E96-820B-44AB-867E-CD943F1AB774}"/>
     <hyperlink ref="D9" r:id="rId109" xr:uid="{00163CED-1DCE-46E2-937D-525A9ABF7D66}"/>
   </hyperlinks>
@@ -6050,9 +6056,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.3515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6072,7 +6078,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Shoutouts!A2:A1000, "*", Shoutouts!D2:D1000, "*", Shoutouts!E2:E1000, "&gt;=0")</f>
+        <f>COUNTIFS(Shoutouts!A3:A1001, "*", Shoutouts!D3:D1001, "*", Shoutouts!E3:E1001, "&gt;=0")</f>
         <v>109</v>
       </c>
     </row>
@@ -6101,7 +6107,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Shoutouts!A2:A1000, "*")</f>
+        <f>COUNTIFS(Shoutouts!A3:A1001, "*")</f>
         <v>110</v>
       </c>
     </row>
@@ -6155,10 +6161,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.1171875" customWidth="1"/>
+    <col min="5" max="5" width="35.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Examples/Børne Klub 100/test_kid2.xlsx
+++ b/Examples/Børne Klub 100/test_kid2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\Examples\Børne Klub 100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\klub-100-maker\Examples\Børne Klub 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_2EE11E31671A170A0A2FD5705C6B582E43346949" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B790E2B1-9D00-4B87-AF22-C60B127B31FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90B2E1-A156-4F74-8BC4-601F803F1015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sange" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="386">
   <si>
     <t>Shoutout titel</t>
   </si>
@@ -105,9 +105,6 @@
     <t>https://www.youtube.com/watch?v=Td8t_ZELZXU</t>
   </si>
   <si>
-    <t>Nøjjj, det for børn</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1189,6 +1186,9 @@
   </si>
   <si>
     <t>Oggy og karkelakerne</t>
+  </si>
+  <si>
+    <t>behold placering</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1545,11 +1545,11 @@
     <col min="1" max="1" width="67.1171875" customWidth="1"/>
     <col min="2" max="2" width="64.3515625" customWidth="1"/>
     <col min="3" max="3" width="19.52734375" customWidth="1"/>
-    <col min="4" max="4" width="20.1171875" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="4" max="5" width="20.1171875" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.7">
+    <row r="1" spans="1:8" ht="12.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,17 +1562,20 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.7">
+    <row r="2" spans="1:8" ht="12.7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1582,1744 +1585,1751 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.7">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.7">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.7">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.7">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.7">
+    <row r="5" spans="1:8" ht="12.7">
       <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.7">
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.7">
       <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.7">
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.7">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.7">
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.7">
       <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.7">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.7">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.7">
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.7">
       <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.7">
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.7">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.7">
+      <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.7">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.7">
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.7">
       <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C13" s="2">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.7">
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.7">
       <c r="A14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.7">
+    <row r="16" spans="1:8" ht="12.7">
       <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.7">
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.7">
       <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.7">
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.7">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.7">
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.7">
       <c r="A19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.7">
+      <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.7">
-      <c r="A20" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
       </c>
       <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.7">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.7">
       <c r="A22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.7">
+      <c r="G22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.7">
       <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.7">
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.7">
       <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.7">
+      <c r="G24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.7">
       <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.7">
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.7">
       <c r="A26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.7">
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.7">
       <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.7">
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.7">
       <c r="A28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.7">
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.7">
       <c r="A29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.7">
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.7">
       <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.7">
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.7">
       <c r="A31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.7">
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.7">
       <c r="A32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.7">
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.7">
       <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.7">
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.7">
       <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.7">
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.7">
       <c r="A35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.7">
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.7">
       <c r="A36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C36" s="2">
         <v>76</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.7">
+      <c r="G36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.7">
       <c r="A37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.7">
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.7">
       <c r="A38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.7">
+      <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.7">
       <c r="A39" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.7">
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.7">
       <c r="A40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.7">
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.7">
       <c r="A41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.7">
+      <c r="A42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.7">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.7">
+      <c r="A43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.7">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.7">
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.7">
       <c r="A44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.7">
+      <c r="G44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.7">
       <c r="A45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.7">
+      <c r="A46" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.7">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.7">
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.7">
       <c r="A47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C47" s="2">
         <v>15</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.7">
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.7">
       <c r="A48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.7">
+      <c r="G48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.7">
       <c r="A49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.7">
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.7">
       <c r="A50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C50" s="2">
         <v>20</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.7">
+      <c r="G50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.7">
       <c r="A51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.7">
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.7">
       <c r="A52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.7">
+      <c r="G52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.7">
       <c r="A53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.7">
+      <c r="G53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.7">
       <c r="A54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="C55" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.7">
+    <row r="56" spans="1:7" ht="12.7">
       <c r="A56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.7">
+      <c r="A57" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.7">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.7">
+      <c r="G57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.7">
       <c r="A58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C58" s="2">
         <v>50</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.7">
+      <c r="G58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.7">
       <c r="A59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="C59" s="2">
         <v>46</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.7">
+      <c r="G59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.7">
       <c r="A60" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.7">
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.7">
       <c r="A61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="C61" s="2">
         <v>38</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.7">
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.7">
       <c r="A62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.7">
+      <c r="G62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.7">
       <c r="A63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.7">
+      <c r="G63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.7">
       <c r="A64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.7">
+      <c r="A65" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.7">
-      <c r="A65" s="7" t="s">
+      <c r="B65" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.7">
+      <c r="G65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.7">
       <c r="A66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.7">
+      <c r="G66" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.7">
       <c r="A67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="C67" s="2">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.7">
+      <c r="G67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.7">
       <c r="A68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.7">
+      <c r="G68" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.7">
       <c r="A69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C69" s="2">
         <v>6</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.7">
+      <c r="G69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.7">
       <c r="A70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.7">
+      <c r="G70" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.7">
       <c r="A71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C71" s="2">
         <v>30</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.7">
+      <c r="G71" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.7">
       <c r="A72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C72" s="2">
         <v>50</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.7">
+      <c r="G72" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.7">
       <c r="A73" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.7">
+      <c r="G73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.7">
       <c r="A74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.7">
+      <c r="G74" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.7">
       <c r="A75" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.7">
+      <c r="G75" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.7">
       <c r="A76" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="C76" s="8">
         <v>3</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.7">
+      <c r="G76" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.7">
       <c r="A77" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.7">
+      <c r="G77" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.7">
       <c r="A78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="12.7">
+      <c r="G78" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.7">
       <c r="A79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C79" s="2">
         <v>32</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.7">
+      <c r="G79" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.7">
       <c r="A80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="12.7">
+      <c r="G80" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.7">
       <c r="A81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="12.7">
+      <c r="G81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.7">
       <c r="A82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.7">
+      <c r="G82" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.7">
       <c r="A83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.7">
+      <c r="G83" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.7">
       <c r="A84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.7">
+      <c r="G84" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.7">
       <c r="A85" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12.7">
+      <c r="G85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.7">
       <c r="A86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.7">
+      <c r="G86" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.7">
       <c r="A87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.7">
+      <c r="G87" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.7">
       <c r="A88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G88" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="C89" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.7">
+    <row r="90" spans="1:7" ht="12.7">
       <c r="A90" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="C90" s="2">
         <v>18</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.7">
+      <c r="G90" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.7">
       <c r="A91" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.7">
+      <c r="G91" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.7">
       <c r="A92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.7">
+      <c r="G92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.7">
       <c r="A93" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="C94" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>384</v>
       </c>
       <c r="C95" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.7">
+    <row r="96" spans="1:7" ht="12.7">
       <c r="A96" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="C96" s="2">
         <v>19</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="C97" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.7">
+    <row r="98" spans="1:7" ht="12.7">
       <c r="A98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="12.7">
+      <c r="G98" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.7">
       <c r="A99" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="C99" s="2">
         <v>70</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.7">
+      <c r="G99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.7">
       <c r="A100" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="12.7">
+      <c r="G100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.7">
       <c r="A101" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="C101" s="2">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.7">
+      <c r="A103" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12.7">
-      <c r="A103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="12.7">
+      <c r="A104" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="12.7">
-      <c r="A104" s="2" t="s">
+      <c r="B104" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="12.7">
+      <c r="G104" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.7">
       <c r="A105" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C105" s="2">
         <v>80</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.7">
+      <c r="A106" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="12.7">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12.7">
+      <c r="G106" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.7">
       <c r="A107" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="C107" s="2">
         <v>15</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="12.7">
+      <c r="G107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.7">
       <c r="A108" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="12.7">
+      <c r="G108" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.7">
       <c r="A109" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="12.7">
+      <c r="G109" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.7">
       <c r="A110" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="C110" s="2">
         <v>6</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="12.7">
+      <c r="G110" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.7">
       <c r="A111" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="12.7">
+      <c r="G111" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.7">
       <c r="A112" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="12.7">
+      <c r="G112" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="12.7">
       <c r="A113" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="C113" s="2">
         <v>198</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="12.7">
+      <c r="G113" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12.7">
       <c r="A114" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="C114" s="2">
         <v>17</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="12.7">
+      <c r="G114" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12.7">
       <c r="A115" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="C115" s="2">
         <v>5</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="12.7">
+      <c r="G115" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="12.7">
       <c r="A116" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="12.7">
+      <c r="G116" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="12.7">
       <c r="A117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="12.7">
+      <c r="G117" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="12.7">
       <c r="A118" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="12.7">
+      <c r="G118" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="12.7">
       <c r="A119" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="12.7">
+      <c r="G119" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="12.7">
       <c r="A120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C120" s="2">
         <v>6</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="12.7">
+      <c r="G120" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="12.7">
       <c r="A121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="12.7">
+      <c r="G121" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="12.7">
       <c r="A122" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.7">
+    <row r="123" spans="1:7" ht="12.7">
       <c r="A123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="C123" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.7">
+    <row r="124" spans="1:7" ht="12.7">
       <c r="A124" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.7">
+    <row r="125" spans="1:7" ht="12.7">
       <c r="A125" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="C125" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.7">
+    <row r="126" spans="1:7" ht="12.7">
       <c r="A126" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="C126" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.7">
+    <row r="127" spans="1:7" ht="12.7">
       <c r="A127" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C127" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.7">
+    <row r="128" spans="1:7" ht="12.7">
       <c r="A128" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C128" s="2">
         <v>20</v>
@@ -3462,10 +3472,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3506,41 +3516,64 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="12.7">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>266</v>
+      </c>
+      <c r="F2" s="5">
+        <v>277</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" ht="12.7">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="12.7">
       <c r="A4" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="5">
         <f>3*60+44</f>
@@ -3553,19 +3586,19 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.7">
       <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5">
         <v>57</v>
@@ -3576,7 +3609,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="13"/>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.7">
@@ -3597,21 +3630,21 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.7">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5">
         <f>9*60+55</f>
@@ -3623,19 +3656,19 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.7">
       <c r="A8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="5">
         <v>42</v>
@@ -3646,7 +3679,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.7">
@@ -3673,21 +3706,21 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.7">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="E10" s="5">
         <f>13*60+55</f>
@@ -3700,395 +3733,397 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.7">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E11" s="5">
-        <v>20</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F11" s="5">
-        <v>24</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="12.7">
-      <c r="A12" s="5" t="s">
-        <v>144</v>
+      <c r="A12" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="14" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="E12" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>2*60+29</f>
+        <v>149</v>
       </c>
       <c r="F12" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>2*60+33</f>
+        <v>153</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.7">
-      <c r="A13" s="18" t="s">
-        <v>245</v>
+      <c r="A13" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="E13" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
-      </c>
-      <c r="F13" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.7">
       <c r="A14" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.7">
       <c r="A15" s="5" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="F15" s="5">
+        <v>191</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.7">
       <c r="A16" s="5" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="E16" s="5">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.7">
       <c r="A17" s="5" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
-        <v>233</v>
+      <c r="D17" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E17" s="5">
-        <v>60</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F17" s="5">
-        <v>62</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.7">
       <c r="A18" s="5" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F18" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.7">
       <c r="A19" s="5" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>217</v>
+      <c r="D19" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="E19" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.7">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="E20" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.7">
       <c r="A21" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="14" t="s">
-        <v>269</v>
+      <c r="D21" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.7">
       <c r="A22" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E22" s="5">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.7">
       <c r="A23" s="5" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E23" s="5">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="12.7">
       <c r="A24" s="5" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E24" s="5">
-        <v>6</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="F24" s="5">
+        <v>39</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="12.7">
       <c r="A25" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="E25" s="5">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F25" s="5">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.7">
       <c r="A26" s="5" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="E26" s="5">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="12.7">
       <c r="A27" s="5" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D27" s="14" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5">
-        <v>61</v>
+        <f>5*60+25</f>
+        <v>325</v>
       </c>
       <c r="F27" s="5">
-        <v>71</v>
+        <f>5*60+40</f>
+        <v>340</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -4096,73 +4131,69 @@
     </row>
     <row r="28" spans="1:9" ht="12.7">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E28" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F28" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="12.7">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E29" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <f>3*60+32</f>
+        <v>212</v>
       </c>
       <c r="F29" s="5">
-        <v>228</v>
+        <f>3*60+39</f>
+        <v>219</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="12.7">
       <c r="A30" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="15" t="s">
-        <v>217</v>
+      <c r="D30" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="E30" s="5">
-        <f>3*60+32</f>
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5">
-        <f>3*60+39</f>
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4170,20 +4201,20 @@
     </row>
     <row r="31" spans="1:9" ht="12.7">
       <c r="A31" s="5" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="F31" s="5">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4191,20 +4222,20 @@
     </row>
     <row r="32" spans="1:9" ht="12.7">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="E32" s="5">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="F32" s="5">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -4212,20 +4243,20 @@
     </row>
     <row r="33" spans="1:9" ht="12.7">
       <c r="A33" s="5" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="E33" s="5">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F33" s="5">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -4233,20 +4264,20 @@
     </row>
     <row r="34" spans="1:9" ht="12.7">
       <c r="A34" s="5" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="F34" s="5">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -4254,20 +4285,22 @@
     </row>
     <row r="35" spans="1:9" ht="12.7">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="E35" s="5">
-        <v>183</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F35" s="5">
-        <v>192</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -4275,137 +4308,135 @@
     </row>
     <row r="36" spans="1:9" ht="12.7">
       <c r="A36" s="5" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D36" s="14" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="E36" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F36" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="12.7">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="E37" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F37" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="12.7">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="E38" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="F38" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="12.7">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="E39" s="5">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F39" s="5">
-        <v>9</v>
-      </c>
-      <c r="G39" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E40" s="5">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F40" s="5">
-        <v>87</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E41" s="5">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -4413,64 +4444,66 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="E42" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F42" s="5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E43" s="5">
+        <v>39</v>
+      </c>
+      <c r="F43" s="5">
         <v>49</v>
       </c>
-      <c r="F43" s="5">
-        <v>69</v>
-      </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D44" s="14" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E44" s="5">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="F44" s="5">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -4478,22 +4511,22 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E45" s="5">
-        <v>266</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F45" s="5">
-        <v>277</v>
+        <f>3*60+50</f>
+        <v>230</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -4501,64 +4534,65 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="15" t="s">
-        <v>217</v>
+      <c r="D46" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E46" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="F46" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
-      </c>
-      <c r="G46" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="E47" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" s="5">
-        <v>66</v>
-      </c>
-      <c r="G47" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D48" s="14" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="E48" s="5">
-        <v>60</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F48" s="5">
-        <v>72</v>
+        <v>605</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -4566,23 +4600,20 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>134</v>
+        <v>57</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="E49" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>42</v>
       </c>
       <c r="F49" s="5">
-        <v>605</v>
+        <v>47</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -4590,20 +4621,24 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E50" s="5">
-        <v>42</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F50" s="5">
-        <v>47</v>
+        <f>E50+12</f>
+        <v>573</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -4611,24 +4646,24 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="E51" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F51" s="5">
-        <f>E51+12</f>
-        <v>573</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -4636,24 +4671,24 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E52" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F52" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -4661,24 +4696,22 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C53" s="13"/>
       <c r="D53" s="14" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="E53" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>2*60+29</f>
+        <v>149</v>
       </c>
       <c r="F53" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>2*60+33</f>
+        <v>153</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -4686,40 +4719,36 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="E54" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
-      </c>
-      <c r="F54" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -4728,39 +4757,41 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="F56" s="5">
+        <v>191</v>
+      </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="E57" s="5">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="F57" s="5">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -4768,20 +4799,22 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="14" t="s">
-        <v>233</v>
+      <c r="D58" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E58" s="5">
-        <v>60</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F58" s="5">
-        <v>62</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -4789,22 +4822,22 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F59" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4812,22 +4845,20 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="15" t="s">
-        <v>217</v>
+      <c r="D60" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="E60" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="F60" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -4835,20 +4866,20 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="E61" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -4856,20 +4887,20 @@
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="14" t="s">
-        <v>269</v>
+      <c r="D62" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F62" s="5">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -4877,20 +4908,20 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E63" s="5">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F63" s="5">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -4898,60 +4929,60 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E64" s="5">
-        <v>18</v>
-      </c>
-      <c r="F64" s="5">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E65" s="5">
-        <v>6</v>
-      </c>
-      <c r="F65" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="F65" s="5">
+        <v>39</v>
+      </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="E66" s="5">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F66" s="5">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -4959,20 +4990,20 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="E67" s="5">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F67" s="5">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -4980,20 +5011,24 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D68" s="14" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="E68" s="5">
-        <v>61</v>
+        <f>5*60+25</f>
+        <v>325</v>
       </c>
       <c r="F68" s="5">
-        <v>71</v>
+        <f>5*60+40</f>
+        <v>340</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -5001,73 +5036,69 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E69" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F69" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="H69" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E70" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <f>3*60+32</f>
+        <v>212</v>
       </c>
       <c r="F70" s="5">
-        <v>228</v>
+        <f>3*60+39</f>
+        <v>219</v>
       </c>
       <c r="G70" s="13"/>
-      <c r="H70" s="5" t="s">
-        <v>230</v>
-      </c>
+      <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="15" t="s">
-        <v>217</v>
+      <c r="D71" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="E71" s="5">
-        <f>3*60+32</f>
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="F71" s="5">
-        <f>3*60+39</f>
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -5075,20 +5106,20 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="E72" s="5">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="F72" s="5">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -5096,20 +5127,20 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="E73" s="5">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="F73" s="5">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -5117,20 +5148,20 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="E74" s="5">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F74" s="5">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -5138,20 +5169,20 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="E75" s="5">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="F75" s="5">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -5159,20 +5190,22 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="E76" s="5">
-        <v>183</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F76" s="5">
-        <v>192</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -5180,22 +5213,24 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D77" s="14" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="E77" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F77" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -5203,24 +5238,24 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="E78" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F78" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -5228,24 +5263,20 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C79" s="13"/>
       <c r="D79" s="14" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="E79" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="F79" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -5253,64 +5284,64 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="E80" s="5">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F80" s="5">
-        <v>9</v>
-      </c>
-      <c r="G80" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E81" s="5">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F81" s="5">
-        <v>87</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="E82" s="5">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F82" s="5">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -5318,64 +5349,66 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="E83" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F83" s="5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+      <c r="H83" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E84" s="5">
+        <v>39</v>
+      </c>
+      <c r="F84" s="5">
         <v>49</v>
       </c>
-      <c r="F84" s="5">
-        <v>69</v>
-      </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D85" s="14" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E85" s="5">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="F85" s="5">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -5383,22 +5416,22 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E86" s="5">
-        <v>266</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F86" s="5">
-        <v>277</v>
+        <f>3*60+50</f>
+        <v>230</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -5406,22 +5439,20 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="15" t="s">
-        <v>217</v>
+      <c r="D87" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E87" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="F87" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -5429,20 +5460,20 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="E88" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F88" s="5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -5450,20 +5481,23 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D89" s="14" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="E89" s="5">
-        <v>60</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F89" s="5">
-        <v>72</v>
+        <v>605</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -5471,23 +5505,20 @@
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>134</v>
+        <v>57</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="E90" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>42</v>
       </c>
       <c r="F90" s="5">
-        <v>605</v>
+        <v>47</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -5495,20 +5526,24 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D91" s="15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="E91" s="5">
-        <v>42</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F91" s="5">
-        <v>47</v>
+        <f>E91+12</f>
+        <v>573</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -5516,24 +5551,24 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="E92" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F92" s="5">
-        <f>E92+12</f>
-        <v>573</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -5541,24 +5576,24 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E93" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F93" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -5566,24 +5601,22 @@
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C94" s="13"/>
       <c r="D94" s="14" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="E94" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>2*60+29</f>
+        <v>149</v>
       </c>
       <c r="F94" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>2*60+33</f>
+        <v>153</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -5591,40 +5624,36 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="E95" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
-      </c>
-      <c r="F95" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="E96" s="5">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -5633,39 +5662,45 @@
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="F97" s="5">
+        <v>28</v>
+      </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C98" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D98" s="14" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="E98" s="5">
-        <v>23</v>
+        <f>5*60+25</f>
+        <v>325</v>
       </c>
       <c r="F98" s="5">
-        <v>28</v>
+        <f>5*60+40</f>
+        <v>340</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -5673,372 +5708,347 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E99" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F99" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="H99" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="E100" s="5">
+        <f>3*60+32</f>
+        <v>212</v>
+      </c>
+      <c r="F100" s="5">
+        <f>3*60+39</f>
+        <v>219</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" ht="12.7">
+      <c r="A101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="5">
+        <v>686</v>
+      </c>
+      <c r="F101" s="5">
+        <v>707</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="103" spans="1:9" ht="12.7">
+      <c r="A103" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="12.7">
+      <c r="A104" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="2">
+        <v>60</v>
+      </c>
+      <c r="F104" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="12.7">
+      <c r="A105" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="2">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="12.7">
+      <c r="A106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="2">
+        <v>81</v>
+      </c>
+      <c r="F106" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="12.7">
+      <c r="A107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="12.7">
+      <c r="A108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F100" s="5">
-        <v>228</v>
-      </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="5" t="s">
+      <c r="F108" s="5">
+        <f>3*60+50</f>
         <v>230</v>
-      </c>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E101" s="5">
-        <f>3*60+32</f>
-        <v>212</v>
-      </c>
-      <c r="F101" s="5">
-        <f>3*60+39</f>
-        <v>219</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-    </row>
-    <row r="102" spans="1:9" ht="12.7">
-      <c r="A102" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="5">
-        <v>686</v>
-      </c>
-      <c r="F102" s="5">
-        <v>707</v>
-      </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I102" s="13"/>
-    </row>
-    <row r="104" spans="1:9" ht="12.7">
-      <c r="A104" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="12.7">
-      <c r="A105" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E105" s="2">
-        <v>60</v>
-      </c>
-      <c r="F105" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="12.7">
-      <c r="A106" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E106" s="2">
-        <v>18</v>
-      </c>
-      <c r="F106" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="12.7">
-      <c r="A107" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E107" s="2">
-        <v>81</v>
-      </c>
-      <c r="F107" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="12.7">
-      <c r="A108" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.7">
       <c r="A109" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F109" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.7">
       <c r="A110" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
-      </c>
-      <c r="F110" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="2">
+        <v>82</v>
+      </c>
+      <c r="F110" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.7">
       <c r="A111" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="E111" s="2">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F111" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="12.7">
       <c r="A112" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="E112" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="12.7">
-      <c r="A113" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E113" s="2">
-        <v>60</v>
-      </c>
-      <c r="F113" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D105" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D106" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D107" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D108" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D109" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D110" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D111" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D112" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D113" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D48" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
-    <hyperlink ref="D89" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
-    <hyperlink ref="D98" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
-    <hyperlink ref="D101" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
-    <hyperlink ref="D100" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
-    <hyperlink ref="D99" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
-    <hyperlink ref="D87" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
-    <hyperlink ref="D95" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
-    <hyperlink ref="D91" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
-    <hyperlink ref="D96" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
-    <hyperlink ref="D97" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
-    <hyperlink ref="D94" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
-    <hyperlink ref="D90" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
-    <hyperlink ref="D93" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
-    <hyperlink ref="D88" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
-    <hyperlink ref="D86" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
-    <hyperlink ref="D92" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
-    <hyperlink ref="D83" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
-    <hyperlink ref="D75" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
-    <hyperlink ref="D59" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
-    <hyperlink ref="D46" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
-    <hyperlink ref="D62" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
-    <hyperlink ref="D63" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
-    <hyperlink ref="D64" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
-    <hyperlink ref="D58" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
-    <hyperlink ref="D54" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
-    <hyperlink ref="D74" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
-    <hyperlink ref="D67" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
-    <hyperlink ref="D60" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
-    <hyperlink ref="D50" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
-    <hyperlink ref="D66" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
-    <hyperlink ref="D72" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
-    <hyperlink ref="D77" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
-    <hyperlink ref="D65" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
-    <hyperlink ref="D55" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
-    <hyperlink ref="D79" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
-    <hyperlink ref="D81" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
-    <hyperlink ref="D56" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
-    <hyperlink ref="D68" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
-    <hyperlink ref="D61" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
-    <hyperlink ref="D82" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
-    <hyperlink ref="D53" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
-    <hyperlink ref="D49" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
-    <hyperlink ref="D70" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
-    <hyperlink ref="D69" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
-    <hyperlink ref="D52" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
-    <hyperlink ref="D78" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
-    <hyperlink ref="D84" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
-    <hyperlink ref="D57" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
-    <hyperlink ref="D73" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
-    <hyperlink ref="D76" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
-    <hyperlink ref="D47" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
-    <hyperlink ref="D45" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
-    <hyperlink ref="D85" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
-    <hyperlink ref="D51" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
-    <hyperlink ref="D42" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
-    <hyperlink ref="D34" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
-    <hyperlink ref="D18" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
+    <hyperlink ref="D104" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D105" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D106" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D107" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D108" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D109" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D110" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D112" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D47" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
+    <hyperlink ref="D88" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
+    <hyperlink ref="D97" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
+    <hyperlink ref="D100" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
+    <hyperlink ref="D99" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
+    <hyperlink ref="D98" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
+    <hyperlink ref="D86" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
+    <hyperlink ref="D94" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
+    <hyperlink ref="D90" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
+    <hyperlink ref="D95" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
+    <hyperlink ref="D96" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
+    <hyperlink ref="D93" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
+    <hyperlink ref="D89" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
+    <hyperlink ref="D92" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
+    <hyperlink ref="D87" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
+    <hyperlink ref="D85" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
+    <hyperlink ref="D91" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
+    <hyperlink ref="D82" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
+    <hyperlink ref="D74" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
+    <hyperlink ref="D58" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
+    <hyperlink ref="D45" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
+    <hyperlink ref="D61" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
+    <hyperlink ref="D62" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
+    <hyperlink ref="D63" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
+    <hyperlink ref="D57" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
+    <hyperlink ref="D53" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
+    <hyperlink ref="D73" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
+    <hyperlink ref="D66" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
+    <hyperlink ref="D79" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
+    <hyperlink ref="D70" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
+    <hyperlink ref="D59" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
+    <hyperlink ref="D49" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
+    <hyperlink ref="D65" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
+    <hyperlink ref="D71" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
+    <hyperlink ref="D76" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
+    <hyperlink ref="D64" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
+    <hyperlink ref="D54" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
+    <hyperlink ref="D78" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
+    <hyperlink ref="D80" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
+    <hyperlink ref="D55" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
+    <hyperlink ref="D67" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
+    <hyperlink ref="D60" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
+    <hyperlink ref="D81" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
+    <hyperlink ref="D52" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
+    <hyperlink ref="D48" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
+    <hyperlink ref="D69" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
+    <hyperlink ref="D68" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
+    <hyperlink ref="D51" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
+    <hyperlink ref="D77" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
+    <hyperlink ref="D83" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
+    <hyperlink ref="D56" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
+    <hyperlink ref="D72" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
+    <hyperlink ref="D75" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
+    <hyperlink ref="D46" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
+    <hyperlink ref="D44" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
+    <hyperlink ref="D84" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
+    <hyperlink ref="D50" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
+    <hyperlink ref="D41" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
+    <hyperlink ref="D33" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
+    <hyperlink ref="D17" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
     <hyperlink ref="D4" r:id="rId70" xr:uid="{0778F8EA-5028-4958-93D5-0BDAC327D879}"/>
-    <hyperlink ref="D21" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
-    <hyperlink ref="D22" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
-    <hyperlink ref="D23" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
-    <hyperlink ref="D17" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
-    <hyperlink ref="D13" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
-    <hyperlink ref="D33" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
-    <hyperlink ref="D26" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
-    <hyperlink ref="D39" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
-    <hyperlink ref="D30" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
-    <hyperlink ref="D19" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
+    <hyperlink ref="D20" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
+    <hyperlink ref="D21" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
+    <hyperlink ref="D22" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
+    <hyperlink ref="D16" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
+    <hyperlink ref="D12" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
+    <hyperlink ref="D32" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
+    <hyperlink ref="D25" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
+    <hyperlink ref="D38" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
+    <hyperlink ref="D29" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
+    <hyperlink ref="D18" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
     <hyperlink ref="D8" r:id="rId81" xr:uid="{DED7A551-0F69-452B-99FA-F4FD4655ADA3}"/>
-    <hyperlink ref="D25" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
-    <hyperlink ref="D31" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
-    <hyperlink ref="D36" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
-    <hyperlink ref="D24" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
-    <hyperlink ref="D14" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
-    <hyperlink ref="D38" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
-    <hyperlink ref="D40" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
-    <hyperlink ref="D15" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
-    <hyperlink ref="D27" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
-    <hyperlink ref="D20" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
-    <hyperlink ref="D41" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
-    <hyperlink ref="D12" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
+    <hyperlink ref="D24" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
+    <hyperlink ref="D30" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
+    <hyperlink ref="D35" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
+    <hyperlink ref="D23" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
+    <hyperlink ref="D13" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
+    <hyperlink ref="D37" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
+    <hyperlink ref="D39" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
+    <hyperlink ref="D14" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
+    <hyperlink ref="D26" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
+    <hyperlink ref="D19" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
+    <hyperlink ref="D40" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
+    <hyperlink ref="D11" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
     <hyperlink ref="D7" r:id="rId94" xr:uid="{05FCE2E9-4D4A-42C7-AF59-FAD60736A926}"/>
-    <hyperlink ref="D29" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
-    <hyperlink ref="D28" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
+    <hyperlink ref="D28" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
+    <hyperlink ref="D27" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
     <hyperlink ref="D10" r:id="rId97" xr:uid="{F79EBC96-0ECE-4254-BA5F-0AC0D0D65286}"/>
-    <hyperlink ref="D37" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
-    <hyperlink ref="D102" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
-    <hyperlink ref="D43" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
-    <hyperlink ref="D16" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
-    <hyperlink ref="D32" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
-    <hyperlink ref="D35" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
+    <hyperlink ref="D36" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
+    <hyperlink ref="D101" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
+    <hyperlink ref="D42" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
+    <hyperlink ref="D15" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
+    <hyperlink ref="D31" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
+    <hyperlink ref="D34" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
     <hyperlink ref="D5" r:id="rId104" xr:uid="{C49D2F82-6F55-4099-AE47-E14FAA61B9B7}"/>
-    <hyperlink ref="D3" r:id="rId105" xr:uid="{3F224D90-2D39-4595-BDC2-96DA84D50B74}"/>
-    <hyperlink ref="D11" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
-    <hyperlink ref="D44" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
+    <hyperlink ref="D2" r:id="rId105" xr:uid="{3F224D90-2D39-4595-BDC2-96DA84D50B74}"/>
+    <hyperlink ref="D3" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
+    <hyperlink ref="D43" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
     <hyperlink ref="D6" r:id="rId108" xr:uid="{04015E96-820B-44AB-867E-CD943F1AB774}"/>
     <hyperlink ref="D9" r:id="rId109" xr:uid="{00163CED-1DCE-46E2-937D-525A9ABF7D66}"/>
   </hyperlinks>
@@ -6078,13 +6088,13 @@
         <v>125</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Shoutouts!A3:A1001, "*", Shoutouts!D3:D1001, "*", Shoutouts!E3:E1001, "&gt;=0")</f>
+        <f>COUNTIFS(Shoutouts!A2:A1000, "*", Shoutouts!D2:D1000, "*", Shoutouts!E2:E1000, "&gt;=0")</f>
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:C3" si="0">B4-B2</f>
@@ -6095,25 +6105,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <f>COUNTIF(Sange!A2:A1000, "*")</f>
         <v>126</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Shoutouts!A3:A1001, "*")</f>
+        <f>COUNTIFS(Shoutouts!A2:A1000, "*")</f>
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(Ideer!A2:A1000, "Sang", Ideer!B2:B1000, "*")</f>
@@ -6126,7 +6136,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5">
         <f>COUNTIF(Sange!B2:B1000, "*youtube*")</f>
@@ -6135,7 +6145,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5">
         <f>COUNTIF(Sange!B2:B1000, "*soundcloud*")</f>
@@ -6144,7 +6154,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6169,27 +6179,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6197,27 +6207,27 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6225,16 +6235,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/Examples/Børne Klub 100/test_kid2.xlsx
+++ b/Examples/Børne Klub 100/test_kid2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\klub-100-maker\Examples\Børne Klub 100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Dokumenter\DTU\Vektor\klub-100-maker\Examples\Børne Klub 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90B2E1-A156-4F74-8BC4-601F803F1015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_2EE11E31671A170A0A2FD5705C6B582E43346949" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B790E2B1-9D00-4B87-AF22-C60B127B31FC}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sange" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="386">
   <si>
     <t>Shoutout titel</t>
   </si>
@@ -105,6 +105,9 @@
     <t>https://www.youtube.com/watch?v=Td8t_ZELZXU</t>
   </si>
   <si>
+    <t>Nøjjj, det for børn</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -1186,9 +1189,6 @@
   </si>
   <si>
     <t>Oggy og karkelakerne</t>
-  </si>
-  <si>
-    <t>behold placering</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1545,11 +1545,11 @@
     <col min="1" max="1" width="67.1171875" customWidth="1"/>
     <col min="2" max="2" width="64.3515625" customWidth="1"/>
     <col min="3" max="3" width="19.52734375" customWidth="1"/>
-    <col min="4" max="5" width="20.1171875" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.7">
+    <row r="1" spans="1:7" ht="12.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,20 +1562,17 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>385</v>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.7">
+    <row r="2" spans="1:7" ht="12.7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1585,1751 +1582,1744 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.7">
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.7">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.7">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.7">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.7">
+    <row r="5" spans="1:7" ht="12.7">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.7">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.7">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.7">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.7">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.7">
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.7">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.7">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.7">
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.7">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.7">
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.7">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.7">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2">
         <v>55</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.7">
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.7">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.7">
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.7">
       <c r="A14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2">
         <v>40</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.7">
+    <row r="16" spans="1:7" ht="12.7">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.7">
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.7">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.7">
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.7">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.7">
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.7">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.7">
       <c r="A20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.7">
+    </row>
+    <row r="22" spans="1:6" ht="12.7">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.7">
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.7">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.7">
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.7">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.7">
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.7">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.7">
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.7">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.7">
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.7">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.7">
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.7">
       <c r="A28" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.7">
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.7">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.7">
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.7">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.7">
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.7">
       <c r="A31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.7">
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.7">
       <c r="A32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.7">
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.7">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.7">
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.7">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.7">
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.7">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.7">
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.7">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2">
         <v>76</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.7">
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.7">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.7">
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.7">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.7">
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.7">
       <c r="A39" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.7">
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.7">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.7">
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.7">
       <c r="A41" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.7">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.7">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.7">
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.7">
       <c r="A44" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.7">
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.7">
       <c r="A45" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.7">
       <c r="A46" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.7">
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.7">
       <c r="A47" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2">
         <v>15</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.7">
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.7">
       <c r="A48" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.7">
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.7">
       <c r="A49" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.7">
+      <c r="F49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.7">
       <c r="A50" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C50" s="2">
         <v>20</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.7">
+      <c r="F50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.7">
       <c r="A51" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.7">
+      <c r="F51" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.7">
       <c r="A52" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.7">
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.7">
       <c r="A53" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="12.7">
+      <c r="F53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.7">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.7">
+    <row r="56" spans="1:6" ht="12.7">
       <c r="A56" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
+      <c r="E56" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.7">
       <c r="A57" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.7">
+      <c r="F57" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.7">
       <c r="A58" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C58" s="2">
         <v>50</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="12.7">
+      <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.7">
       <c r="A59" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C59" s="2">
         <v>46</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.7">
+      <c r="F59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.7">
       <c r="A60" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.7">
+      <c r="F60" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.7">
       <c r="A61" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2">
         <v>38</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.7">
+      <c r="F61" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.7">
       <c r="A62" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.7">
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.7">
       <c r="A63" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.7">
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.7">
       <c r="A64" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" s="2">
         <v>11</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.7">
       <c r="A65" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="12.7">
+      <c r="F65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.7">
       <c r="A66" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.7">
+      <c r="F66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.7">
       <c r="A67" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C67" s="2">
         <v>15</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.7">
+      <c r="F67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.7">
       <c r="A68" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.7">
+      <c r="F68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.7">
       <c r="A69" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" s="2">
         <v>6</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="12.7">
+      <c r="F69" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.7">
       <c r="A70" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.7">
+      <c r="F70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.7">
       <c r="A71" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C71" s="2">
         <v>30</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.7">
+      <c r="F71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.7">
       <c r="A72" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C72" s="2">
         <v>50</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="12.7">
+      <c r="F72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.7">
       <c r="A73" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.7">
+      <c r="F73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.7">
       <c r="A74" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="12.7">
+      <c r="F74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.7">
       <c r="A75" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.7">
+      <c r="F75" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.7">
       <c r="A76" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C76" s="8">
         <v>3</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.7">
+      <c r="F76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.7">
       <c r="A77" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.7">
+      <c r="F77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.7">
       <c r="A78" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.7">
+      <c r="F78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.7">
       <c r="A79" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C79" s="2">
         <v>32</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="12.7">
+      <c r="F79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.7">
       <c r="A80" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.7">
+      <c r="F80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.7">
       <c r="A81" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.7">
+      <c r="F81" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.7">
       <c r="A82" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="12.7">
+      <c r="F82" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.7">
       <c r="A83" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="12.7">
+      <c r="F83" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.7">
       <c r="A84" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.7">
+      <c r="F84" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.7">
       <c r="A85" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="12.7">
+      <c r="F85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.7">
       <c r="A86" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="12.7">
+      <c r="F86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.7">
       <c r="A87" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.7">
+      <c r="F87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.7">
       <c r="A88" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C89" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12.7">
+    <row r="90" spans="1:6" ht="12.7">
       <c r="A90" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C90" s="2">
         <v>18</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="12.7">
+      <c r="F90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.7">
       <c r="A91" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="12.7">
+      <c r="F91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.7">
       <c r="A92" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="12.7">
+      <c r="F92" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.7">
       <c r="A93" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F93" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C94" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C95" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.7">
+    <row r="96" spans="1:6" ht="12.7">
       <c r="A96" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C96" s="2">
         <v>19</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F96" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C97" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.7">
+    <row r="98" spans="1:6" ht="12.7">
       <c r="A98" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="12.7">
+      <c r="F98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.7">
       <c r="A99" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C99" s="2">
         <v>70</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.7">
+      <c r="F99" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.7">
       <c r="A100" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.7">
+      <c r="F100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.7">
       <c r="A101" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C101" s="2">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.7">
       <c r="A103" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.7">
       <c r="A104" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="12.7">
+      <c r="F104" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="12.7">
       <c r="A105" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C105" s="2">
         <v>80</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="12.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.7">
       <c r="A106" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="12.7">
+      <c r="F106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="12.7">
       <c r="A107" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C107" s="2">
         <v>15</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="12.7">
+      <c r="F107" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.7">
       <c r="A108" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="12.7">
+      <c r="F108" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.7">
       <c r="A109" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="12.7">
+      <c r="F109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.7">
       <c r="A110" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C110" s="2">
         <v>6</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12.7">
+      <c r="F110" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.7">
       <c r="A111" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="12.7">
+      <c r="F111" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.7">
       <c r="A112" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="12.7">
+      <c r="F112" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="12.7">
       <c r="A113" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C113" s="2">
         <v>198</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="12.7">
+      <c r="F113" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.7">
       <c r="A114" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C114" s="2">
         <v>17</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="12.7">
+      <c r="F114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.7">
       <c r="A115" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C115" s="2">
         <v>5</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="12.7">
+      <c r="F115" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.7">
       <c r="A116" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="12.7">
+      <c r="F116" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.7">
       <c r="A117" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="12.7">
+      <c r="F117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="12.7">
       <c r="A118" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="12.7">
+      <c r="F118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="12.7">
       <c r="A119" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="12.7">
+      <c r="F119" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.7">
       <c r="A120" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C120" s="2">
         <v>6</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="12.7">
+      <c r="F120" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="12.7">
       <c r="A121" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="12.7">
+      <c r="F121" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.7">
       <c r="A122" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="12.7">
+    <row r="123" spans="1:6" ht="12.7">
       <c r="A123" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C123" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="12.7">
+    <row r="124" spans="1:6" ht="12.7">
       <c r="A124" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="12.7">
+    <row r="125" spans="1:6" ht="12.7">
       <c r="A125" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C125" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="12.7">
+    <row r="126" spans="1:6" ht="12.7">
       <c r="A126" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C126" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="12.7">
+    <row r="127" spans="1:6" ht="12.7">
       <c r="A127" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C127" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="12.7">
+    <row r="128" spans="1:6" ht="12.7">
       <c r="A128" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C128" s="2">
         <v>20</v>
@@ -3472,10 +3462,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3516,64 +3506,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.7">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="5">
-        <v>266</v>
-      </c>
-      <c r="F2" s="5">
-        <v>277</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="3" spans="1:9" ht="12.7">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="F3" s="5">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.7">
       <c r="A4" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E4" s="5">
         <f>3*60+44</f>
@@ -3586,19 +3553,19 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.7">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5">
         <v>57</v>
@@ -3609,7 +3576,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="13"/>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.7">
@@ -3630,21 +3597,21 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.7">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" s="5">
         <f>9*60+55</f>
@@ -3656,19 +3623,19 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.7">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" s="5">
         <v>42</v>
@@ -3679,7 +3646,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.7">
@@ -3706,21 +3673,21 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.7">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="5">
         <f>13*60+55</f>
@@ -3733,397 +3700,395 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.7">
       <c r="A11" s="5" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.7">
+      <c r="A12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="B12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="5">
         <f>13*60+24</f>
         <v>804</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <f>13*60+35</f>
         <v>815</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.7">
-      <c r="A12" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
-      </c>
-      <c r="F12" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.7">
-      <c r="A13" s="5" t="s">
-        <v>185</v>
+      <c r="A13" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="E13" s="5">
-        <v>175</v>
-      </c>
-      <c r="F13" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F13" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.7">
       <c r="A14" s="5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.7">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E15" s="5">
-        <v>185</v>
-      </c>
-      <c r="F15" s="5">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.7">
       <c r="A16" s="5" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.7">
       <c r="A17" s="5" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="15" t="s">
-        <v>216</v>
+      <c r="D17" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="E17" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.7">
       <c r="A18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E18" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F18" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.7">
       <c r="A19" s="5" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>159</v>
+      <c r="D19" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E19" s="5">
-        <v>28</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F19" s="5">
-        <v>38</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.7">
       <c r="A20" s="5" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.7">
       <c r="A21" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="15" t="s">
-        <v>260</v>
+      <c r="D21" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="E21" s="5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.7">
       <c r="A22" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="14" t="s">
-        <v>260</v>
+      <c r="D22" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="E22" s="5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.7">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="E23" s="5">
-        <v>6</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F23" s="5">
+        <v>24</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="12.7">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E24" s="5">
-        <v>34</v>
-      </c>
-      <c r="F24" s="5">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="12.7">
       <c r="A25" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E25" s="5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.7">
       <c r="A26" s="5" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="E26" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F26" s="5">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="12.7">
       <c r="A27" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="E27" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -4131,69 +4096,73 @@
     </row>
     <row r="28" spans="1:9" ht="12.7">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F28" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.7">
+      <c r="A29" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="B29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>228</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.7">
-      <c r="A29" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="G29" s="13"/>
+      <c r="H29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.7">
+      <c r="A30" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <f>3*60+39</f>
         <v>219</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.7">
-      <c r="A30" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="5">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5">
-        <v>18</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4201,20 +4170,20 @@
     </row>
     <row r="31" spans="1:9" ht="12.7">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="E31" s="5">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="F31" s="5">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4222,20 +4191,20 @@
     </row>
     <row r="32" spans="1:9" ht="12.7">
       <c r="A32" s="5" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="E32" s="5">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="F32" s="5">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -4243,20 +4212,20 @@
     </row>
     <row r="33" spans="1:9" ht="12.7">
       <c r="A33" s="5" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="E33" s="5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F33" s="5">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -4264,20 +4233,20 @@
     </row>
     <row r="34" spans="1:9" ht="12.7">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="E34" s="5">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -4285,22 +4254,20 @@
     </row>
     <row r="35" spans="1:9" ht="12.7">
       <c r="A35" s="5" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="F35" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -4308,135 +4275,137 @@
     </row>
     <row r="36" spans="1:9" ht="12.7">
       <c r="A36" s="5" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E36" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F36" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="12.7">
       <c r="A37" s="5" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F37" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="12.7">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" s="14" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E38" s="5">
-        <v>3</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F38" s="5">
-        <v>9</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="12.7">
       <c r="A39" s="5" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="E39" s="5">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5">
-        <v>87</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E40" s="5">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F40" s="5">
-        <v>158</v>
-      </c>
-      <c r="G40" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="E41" s="5">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="F41" s="5">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -4444,66 +4413,64 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="E42" s="5">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F43" s="5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="5">
+        <v>39</v>
+      </c>
+      <c r="F44" s="5">
         <v>49</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="5">
-        <v>266</v>
-      </c>
-      <c r="F44" s="5">
-        <v>277</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -4511,22 +4478,22 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15" t="s">
-        <v>216</v>
+        <v>49</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F45" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -4534,65 +4501,64 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="14" t="s">
-        <v>58</v>
+      <c r="D46" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E46" s="5">
-        <v>57</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F46" s="5">
-        <v>66</v>
-      </c>
-      <c r="G46" s="5"/>
+        <f>3*60+50</f>
+        <v>230</v>
+      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="E47" s="5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F47" s="5">
-        <v>72</v>
-      </c>
-      <c r="G47" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="E48" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>60</v>
       </c>
       <c r="F48" s="5">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -4600,20 +4566,23 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15" t="s">
-        <v>203</v>
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E49" s="5">
-        <v>42</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F49" s="5">
-        <v>47</v>
+        <v>605</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -4621,24 +4590,20 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="15" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E50" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5">
-        <f>E50+12</f>
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -4646,24 +4611,24 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E51" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F51" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>E51+12</f>
+        <v>573</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -4671,24 +4636,24 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E52" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F52" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -4696,22 +4661,24 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D53" s="14" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="E53" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F53" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -4719,36 +4686,40 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="E54" s="5">
-        <v>175</v>
-      </c>
-      <c r="F54" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F54" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -4757,41 +4728,39 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E56" s="5">
-        <v>185</v>
-      </c>
-      <c r="F56" s="5">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="E57" s="5">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="F57" s="5">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -4799,22 +4768,20 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="15" t="s">
-        <v>216</v>
+      <c r="D58" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="E58" s="5">
-        <f>1*60+27</f>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F58" s="5">
-        <f>1*60+31</f>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -4822,22 +4789,22 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E59" s="5">
-        <f>2*60+54</f>
-        <v>174</v>
+        <f>1*60+27</f>
+        <v>87</v>
       </c>
       <c r="F59" s="5">
-        <f>3*60+1</f>
-        <v>181</v>
+        <f>1*60+31</f>
+        <v>91</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4845,20 +4812,22 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="14" t="s">
-        <v>159</v>
+      <c r="D60" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E60" s="5">
-        <v>28</v>
+        <f>2*60+54</f>
+        <v>174</v>
       </c>
       <c r="F60" s="5">
-        <v>38</v>
+        <f>3*60+1</f>
+        <v>181</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -4866,20 +4835,20 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F61" s="5">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -4887,20 +4856,20 @@
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="15" t="s">
-        <v>260</v>
+      <c r="D62" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="E62" s="5">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -4908,20 +4877,20 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="14" t="s">
-        <v>260</v>
+      <c r="D63" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="E63" s="5">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F63" s="5">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -4929,60 +4898,60 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="E64" s="5">
-        <v>6</v>
-      </c>
-      <c r="F64" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F64" s="5">
+        <v>24</v>
+      </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E65" s="5">
-        <v>34</v>
-      </c>
-      <c r="F65" s="5">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E66" s="5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F66" s="5">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -4990,20 +4959,20 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="E67" s="5">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F67" s="5">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -5011,24 +4980,20 @@
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="F68" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -5036,69 +5001,73 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F69" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="B70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>228</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="5">
+      <c r="G70" s="13"/>
+      <c r="H70" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="5">
         <f>3*60+39</f>
         <v>219</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="5">
-        <v>13</v>
-      </c>
-      <c r="F71" s="5">
-        <v>18</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -5106,20 +5075,20 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="E72" s="5">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -5127,20 +5096,20 @@
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="E73" s="5">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="F73" s="5">
-        <v>73</v>
+        <v>383</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -5148,20 +5117,20 @@
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="E74" s="5">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F74" s="5">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -5169,20 +5138,20 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="E75" s="5">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="F75" s="5">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -5190,22 +5159,20 @@
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="E76" s="5">
-        <f>7*60+35</f>
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="F76" s="5">
-        <f>7*60+41</f>
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -5213,24 +5180,22 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="14" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E77" s="5">
-        <f>6*60+42</f>
-        <v>402</v>
+        <f>7*60+35</f>
+        <v>455</v>
       </c>
       <c r="F77" s="5">
-        <f>6*60+53</f>
-        <v>413</v>
+        <f>7*60+41</f>
+        <v>461</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -5238,24 +5203,24 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" s="5">
-        <f>7*60+7</f>
-        <v>427</v>
+        <f>6*60+42</f>
+        <v>402</v>
       </c>
       <c r="F78" s="5">
-        <f>7*60+30</f>
-        <v>450</v>
+        <f>6*60+53</f>
+        <v>413</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -5263,20 +5228,24 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C79" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D79" s="14" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E79" s="5">
-        <v>3</v>
+        <f>7*60+7</f>
+        <v>427</v>
       </c>
       <c r="F79" s="5">
-        <v>9</v>
+        <f>7*60+30</f>
+        <v>450</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -5284,64 +5253,64 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="E80" s="5">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F80" s="5">
-        <v>87</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E81" s="5">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F81" s="5">
-        <v>158</v>
-      </c>
-      <c r="G81" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="E82" s="5">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="F82" s="5">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -5349,66 +5318,64 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="E83" s="5">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F83" s="5">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E84" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F84" s="5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="5">
+        <v>39</v>
+      </c>
+      <c r="F85" s="5">
         <v>49</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="5">
-        <v>266</v>
-      </c>
-      <c r="F85" s="5">
-        <v>277</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -5416,22 +5383,22 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="15" t="s">
-        <v>216</v>
+        <v>49</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E86" s="5">
-        <f>3*60+44</f>
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F86" s="5">
-        <f>3*60+50</f>
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -5439,20 +5406,22 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="14" t="s">
-        <v>58</v>
+      <c r="D87" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="E87" s="5">
-        <v>57</v>
+        <f>3*60+44</f>
+        <v>224</v>
       </c>
       <c r="F87" s="5">
-        <v>66</v>
+        <f>3*60+50</f>
+        <v>230</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -5460,20 +5429,20 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="E88" s="5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F88" s="5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -5481,23 +5450,20 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="14" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="E89" s="5">
-        <f>9*60+55</f>
-        <v>595</v>
+        <v>60</v>
       </c>
       <c r="F89" s="5">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -5505,20 +5471,23 @@
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15" t="s">
-        <v>203</v>
+        <v>113</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E90" s="5">
-        <v>42</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
       <c r="F90" s="5">
-        <v>47</v>
+        <v>605</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -5526,24 +5495,20 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="15" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E91" s="5">
-        <f>9*60+21</f>
-        <v>561</v>
+        <v>42</v>
       </c>
       <c r="F91" s="5">
-        <f>E91+12</f>
-        <v>573</v>
+        <v>47</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -5551,24 +5516,24 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="5">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>9*60+21</f>
+        <v>561</v>
       </c>
       <c r="F92" s="5">
-        <f>14*60+11</f>
-        <v>851</v>
+        <f>E92+12</f>
+        <v>573</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -5576,24 +5541,24 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E93" s="5">
-        <f>13*60+24</f>
-        <v>804</v>
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
       <c r="F93" s="5">
-        <f>13*60+35</f>
-        <v>815</v>
+        <f>14*60+11</f>
+        <v>851</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -5601,22 +5566,24 @@
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D94" s="14" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="E94" s="5">
-        <f>2*60+29</f>
-        <v>149</v>
+        <f>13*60+24</f>
+        <v>804</v>
       </c>
       <c r="F94" s="5">
-        <f>2*60+33</f>
-        <v>153</v>
+        <f>13*60+35</f>
+        <v>815</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -5624,36 +5591,40 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="E95" s="5">
-        <v>175</v>
-      </c>
-      <c r="F95" s="13"/>
+        <f>2*60+29</f>
+        <v>149</v>
+      </c>
+      <c r="F95" s="5">
+        <f>2*60+33</f>
+        <v>153</v>
+      </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="E96" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -5662,45 +5633,39 @@
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="E97" s="5">
-        <v>23</v>
-      </c>
-      <c r="F97" s="5">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F97" s="13"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="14" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="E98" s="5">
-        <f>5*60+25</f>
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="F98" s="5">
-        <f>5*60+40</f>
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -5708,347 +5673,372 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="5">
+        <f>5*60+25</f>
+        <v>325</v>
+      </c>
+      <c r="F99" s="5">
+        <f>5*60+40</f>
+        <v>340</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="B100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F100" s="5">
         <v>228</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="G100" s="13"/>
+      <c r="H100" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="5">
         <f>3*60+32</f>
         <v>212</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F101" s="5">
         <f>3*60+39</f>
         <v>219</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" ht="12.7">
-      <c r="A101" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" ht="12.7">
+      <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14" t="s">
+      <c r="B102" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E101" s="5">
+      <c r="C102" s="13"/>
+      <c r="D102" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="5">
         <v>686</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F102" s="5">
         <v>707</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I101" s="13"/>
-    </row>
-    <row r="103" spans="1:9" ht="12.7">
-      <c r="A103" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I102" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="12.7">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E104" s="2">
-        <v>60</v>
-      </c>
-      <c r="F104" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.7">
       <c r="A105" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="E105" s="2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.7">
       <c r="A106" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D106" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="D106" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="E106" s="2">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.7">
       <c r="A107" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.7">
       <c r="A108" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E108" s="5">
+        <v>268</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="12.7">
+      <c r="A109" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" s="5">
         <f>3*60+44</f>
         <v>224</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F109" s="5">
         <f>3*60+50</f>
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="12.7">
-      <c r="A109" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="5">
+    <row r="110" spans="1:9" ht="12.7">
+      <c r="A110" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" s="5">
         <f>1*60+27</f>
         <v>87</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F110" s="5">
         <f>1*60+31</f>
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="12.7">
-      <c r="A110" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E110" s="2">
-        <v>82</v>
-      </c>
-      <c r="F110" s="2">
-        <v>85</v>
-      </c>
-    </row>
     <row r="111" spans="1:9" ht="12.7">
       <c r="A111" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="E111" s="2">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="12.7">
       <c r="A112" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="2">
+        <v>25</v>
+      </c>
+      <c r="F112" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="12.7">
+      <c r="A113" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="B113" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E112" s="2">
+      <c r="D113" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="2">
         <v>60</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F113" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D104" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D105" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D106" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D107" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D108" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D109" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D110" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D111" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D112" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D47" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
-    <hyperlink ref="D88" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
-    <hyperlink ref="D97" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
-    <hyperlink ref="D100" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
-    <hyperlink ref="D99" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
-    <hyperlink ref="D98" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
-    <hyperlink ref="D86" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
-    <hyperlink ref="D94" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
-    <hyperlink ref="D90" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
-    <hyperlink ref="D95" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
-    <hyperlink ref="D96" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
-    <hyperlink ref="D93" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
-    <hyperlink ref="D89" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
-    <hyperlink ref="D92" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
-    <hyperlink ref="D87" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
-    <hyperlink ref="D85" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
-    <hyperlink ref="D91" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
-    <hyperlink ref="D82" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
-    <hyperlink ref="D74" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
-    <hyperlink ref="D58" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
-    <hyperlink ref="D45" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
-    <hyperlink ref="D61" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
-    <hyperlink ref="D62" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
-    <hyperlink ref="D63" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
-    <hyperlink ref="D57" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
-    <hyperlink ref="D53" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
-    <hyperlink ref="D73" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
-    <hyperlink ref="D66" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
-    <hyperlink ref="D79" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
-    <hyperlink ref="D70" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
-    <hyperlink ref="D59" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
-    <hyperlink ref="D49" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
-    <hyperlink ref="D65" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
-    <hyperlink ref="D71" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
-    <hyperlink ref="D76" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
-    <hyperlink ref="D64" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
-    <hyperlink ref="D54" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
-    <hyperlink ref="D78" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
-    <hyperlink ref="D80" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
-    <hyperlink ref="D55" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
-    <hyperlink ref="D67" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
-    <hyperlink ref="D60" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
-    <hyperlink ref="D81" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
-    <hyperlink ref="D52" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
-    <hyperlink ref="D48" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
-    <hyperlink ref="D69" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
-    <hyperlink ref="D68" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
-    <hyperlink ref="D51" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
-    <hyperlink ref="D77" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
-    <hyperlink ref="D83" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
-    <hyperlink ref="D56" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
-    <hyperlink ref="D72" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
-    <hyperlink ref="D75" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
-    <hyperlink ref="D46" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
-    <hyperlink ref="D44" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
-    <hyperlink ref="D84" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
-    <hyperlink ref="D50" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
-    <hyperlink ref="D41" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
-    <hyperlink ref="D33" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
-    <hyperlink ref="D17" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
+    <hyperlink ref="D105" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D106" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D107" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D108" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D109" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D110" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D111" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D112" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D113" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D48" r:id="rId10" xr:uid="{DB75EC3D-F8F9-4CB5-96FB-D8421024845E}"/>
+    <hyperlink ref="D89" r:id="rId11" xr:uid="{B211F4DF-5DC4-43C9-B0C5-ADA4CB6C2052}"/>
+    <hyperlink ref="D98" r:id="rId12" xr:uid="{E40F3BFF-0181-4604-9969-FE37178F713A}"/>
+    <hyperlink ref="D101" r:id="rId13" xr:uid="{266DBA46-D786-416B-8465-65D43F68E0E7}"/>
+    <hyperlink ref="D100" r:id="rId14" xr:uid="{6D7E018C-CF00-4AFA-8EFF-F94BC28E70A7}"/>
+    <hyperlink ref="D99" r:id="rId15" xr:uid="{1FC5603F-F2ED-4DB9-B96D-3ADEA8E0644D}"/>
+    <hyperlink ref="D87" r:id="rId16" xr:uid="{382F3FEB-BB19-4D3D-97E4-E793DB31221E}"/>
+    <hyperlink ref="D95" r:id="rId17" xr:uid="{8D2EBBC4-571C-40E3-961F-808B4E407AA8}"/>
+    <hyperlink ref="D91" r:id="rId18" xr:uid="{8DE95D27-39A4-42E1-B4B4-450A050EA326}"/>
+    <hyperlink ref="D96" r:id="rId19" xr:uid="{FC1204B4-193A-4AFA-B688-8B27D453B329}"/>
+    <hyperlink ref="D97" r:id="rId20" xr:uid="{916744AD-8383-461E-86B7-ACA1A4441657}"/>
+    <hyperlink ref="D94" r:id="rId21" xr:uid="{59C1708A-38EA-4184-871B-D3630B0463A1}"/>
+    <hyperlink ref="D90" r:id="rId22" xr:uid="{FC1EBF75-06AE-4A6E-B4B4-B416E6D9951F}"/>
+    <hyperlink ref="D93" r:id="rId23" xr:uid="{62F77429-1FB6-4FCD-97AC-0DF19DBA3B7B}"/>
+    <hyperlink ref="D88" r:id="rId24" xr:uid="{ED8A622A-4646-49FB-B623-4C8C2AFAA3E0}"/>
+    <hyperlink ref="D86" r:id="rId25" xr:uid="{502A3164-57A7-440B-B505-1494E822AD3A}"/>
+    <hyperlink ref="D92" r:id="rId26" xr:uid="{90AC798E-E47F-457E-809E-B884C9468766}"/>
+    <hyperlink ref="D83" r:id="rId27" xr:uid="{40EEF3D3-09FF-4582-A95F-FE405C010E82}"/>
+    <hyperlink ref="D75" r:id="rId28" xr:uid="{7F61CC59-DB08-4A0C-B4A1-ECC3FCE5EC5F}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{92CD165B-515B-4EB5-817F-519B0B882A18}"/>
+    <hyperlink ref="D46" r:id="rId30" xr:uid="{64532052-8825-4767-9D43-8AFE7A58BDC3}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{A48E0E75-6C1F-417D-B221-E0A9C1B8A018}"/>
+    <hyperlink ref="D63" r:id="rId32" xr:uid="{39E0ECEE-A677-452C-9A5A-89CDEF39B7CB}"/>
+    <hyperlink ref="D64" r:id="rId33" xr:uid="{D528978B-18ED-4EE3-BB38-CDC83B630F2B}"/>
+    <hyperlink ref="D58" r:id="rId34" xr:uid="{B61615E2-FF4A-4019-B565-157E5791CC3E}"/>
+    <hyperlink ref="D54" r:id="rId35" xr:uid="{AF04828B-737E-4802-AE32-1AEB7AA6263B}"/>
+    <hyperlink ref="D74" r:id="rId36" xr:uid="{5B2E371E-0B9E-4416-A7F6-B5F03D2B22E3}"/>
+    <hyperlink ref="D67" r:id="rId37" xr:uid="{33794BF9-4602-4C1D-897B-C8DCD0EEA8DC}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{BAE0D0AF-ABA1-4F2F-954F-E279D69A01E3}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{097345DE-C00A-4640-9BC3-C0254C1728F6}"/>
+    <hyperlink ref="D60" r:id="rId40" xr:uid="{EBA63B05-EDBB-41C2-976F-EC885904A67D}"/>
+    <hyperlink ref="D50" r:id="rId41" xr:uid="{2A4B3384-8417-408E-B75F-4ED7CF2DF77A}"/>
+    <hyperlink ref="D66" r:id="rId42" xr:uid="{FC260DE3-A2CC-4D6A-A73A-3EACF627090A}"/>
+    <hyperlink ref="D72" r:id="rId43" xr:uid="{312954E2-C95B-4FEB-892D-E34C893526D7}"/>
+    <hyperlink ref="D77" r:id="rId44" xr:uid="{8D1D0014-212E-45E5-9E87-24325C9631D4}"/>
+    <hyperlink ref="D65" r:id="rId45" xr:uid="{7D660003-2451-4FE3-8292-91D6B0A5E506}"/>
+    <hyperlink ref="D55" r:id="rId46" xr:uid="{607CA4DB-7D1C-463E-88C4-8D59A42D56BD}"/>
+    <hyperlink ref="D79" r:id="rId47" xr:uid="{5254CBD6-4AE0-48CD-B92C-10ACAE576BAF}"/>
+    <hyperlink ref="D81" r:id="rId48" xr:uid="{859D2D95-1EBB-438A-AC25-95D46E585C2D}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{C643F879-7EF2-4414-B0DD-4F9E55CD4836}"/>
+    <hyperlink ref="D68" r:id="rId50" xr:uid="{9A243650-34FD-4519-BF56-2953B53D3135}"/>
+    <hyperlink ref="D61" r:id="rId51" xr:uid="{16AB7A2A-A11E-4409-9020-857DBB1EEB65}"/>
+    <hyperlink ref="D82" r:id="rId52" xr:uid="{68B1896E-80CE-48C3-8B5C-27D8AC484B46}"/>
+    <hyperlink ref="D53" r:id="rId53" xr:uid="{4FF28EDD-2973-4624-A97B-DE786E4D5A87}"/>
+    <hyperlink ref="D49" r:id="rId54" xr:uid="{C18D4DE4-989E-4BC6-931A-53935FEBACCD}"/>
+    <hyperlink ref="D70" r:id="rId55" xr:uid="{D5215828-172E-423B-B423-CE1DD3A227E9}"/>
+    <hyperlink ref="D69" r:id="rId56" xr:uid="{59337863-9882-4183-9F8F-4EC1381D453A}"/>
+    <hyperlink ref="D52" r:id="rId57" xr:uid="{EC005F4B-B115-4787-B89C-210188ECA7DF}"/>
+    <hyperlink ref="D78" r:id="rId58" xr:uid="{793859B6-C95B-4F90-A4F1-587846C3D623}"/>
+    <hyperlink ref="D84" r:id="rId59" xr:uid="{62681378-957E-4DD4-98C2-843858A94A80}"/>
+    <hyperlink ref="D57" r:id="rId60" xr:uid="{1850DA2A-E4F7-46A3-8C6C-D1E1A99598B6}"/>
+    <hyperlink ref="D73" r:id="rId61" xr:uid="{568A04D3-502D-4FAA-B33A-7E79B149CD6F}"/>
+    <hyperlink ref="D76" r:id="rId62" xr:uid="{6E2BF243-982F-45AD-8ECD-B3FBB5A3E36A}"/>
+    <hyperlink ref="D47" r:id="rId63" xr:uid="{63E5D637-CE09-4C83-8304-0AE1DA2FF2B8}"/>
+    <hyperlink ref="D45" r:id="rId64" xr:uid="{58B2D1E0-DF0B-4BA2-A54E-ED36B795C81A}"/>
+    <hyperlink ref="D85" r:id="rId65" xr:uid="{5437D9FD-AF58-44B3-A95B-1DCFAF413F0C}"/>
+    <hyperlink ref="D51" r:id="rId66" xr:uid="{D0D042C9-1C8C-45C3-8721-35C1B1875FBE}"/>
+    <hyperlink ref="D42" r:id="rId67" xr:uid="{E574D49B-234F-43C9-887F-5199A6781666}"/>
+    <hyperlink ref="D34" r:id="rId68" xr:uid="{A4EC8FE4-1690-433F-8CCD-2C484777DC8D}"/>
+    <hyperlink ref="D18" r:id="rId69" xr:uid="{F86FE07A-A6D0-4381-AB6C-980EF2B02ED5}"/>
     <hyperlink ref="D4" r:id="rId70" xr:uid="{0778F8EA-5028-4958-93D5-0BDAC327D879}"/>
-    <hyperlink ref="D20" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
-    <hyperlink ref="D21" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
-    <hyperlink ref="D22" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
-    <hyperlink ref="D16" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
-    <hyperlink ref="D12" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
-    <hyperlink ref="D32" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
-    <hyperlink ref="D25" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
-    <hyperlink ref="D38" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
-    <hyperlink ref="D29" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
-    <hyperlink ref="D18" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
+    <hyperlink ref="D21" r:id="rId71" xr:uid="{512D9404-8DD9-4665-9B46-99E1909F58D1}"/>
+    <hyperlink ref="D22" r:id="rId72" xr:uid="{0B162DD0-D3A2-4E68-B33F-104F7B07715E}"/>
+    <hyperlink ref="D23" r:id="rId73" xr:uid="{64EA86A9-72C1-4FA4-9C52-BF6C04FC071B}"/>
+    <hyperlink ref="D17" r:id="rId74" xr:uid="{CC3E8A41-8CC6-4535-AEF8-1C1ED42396CC}"/>
+    <hyperlink ref="D13" r:id="rId75" xr:uid="{C0664813-10C6-44EF-80F1-C57C3F269DEE}"/>
+    <hyperlink ref="D33" r:id="rId76" xr:uid="{A1BE5D9B-449B-427B-9E91-39B75022DD05}"/>
+    <hyperlink ref="D26" r:id="rId77" xr:uid="{FBE293E4-1E71-405D-BC1E-B52CA97AEABD}"/>
+    <hyperlink ref="D39" r:id="rId78" xr:uid="{7B8E9235-09A1-4023-BC06-D736C245B2C2}"/>
+    <hyperlink ref="D30" r:id="rId79" xr:uid="{12F66793-32AF-4AE9-9DBC-5369130564D8}"/>
+    <hyperlink ref="D19" r:id="rId80" xr:uid="{9115D710-C1F0-473F-A65D-FE3D91140F89}"/>
     <hyperlink ref="D8" r:id="rId81" xr:uid="{DED7A551-0F69-452B-99FA-F4FD4655ADA3}"/>
-    <hyperlink ref="D24" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
-    <hyperlink ref="D30" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
-    <hyperlink ref="D35" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
-    <hyperlink ref="D23" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
-    <hyperlink ref="D13" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
-    <hyperlink ref="D37" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
-    <hyperlink ref="D39" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
-    <hyperlink ref="D14" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
-    <hyperlink ref="D26" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
-    <hyperlink ref="D19" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
-    <hyperlink ref="D40" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
-    <hyperlink ref="D11" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
+    <hyperlink ref="D25" r:id="rId82" xr:uid="{5102B703-F786-42EE-9231-09C5573F1545}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{0D6940C1-952A-4000-A464-71D401E2DF2F}"/>
+    <hyperlink ref="D36" r:id="rId84" xr:uid="{B061AD61-36A0-46B5-BD99-900EB7D477D1}"/>
+    <hyperlink ref="D24" r:id="rId85" xr:uid="{19D0F0D1-2F73-45DA-9AEC-BB9DEBBE60D6}"/>
+    <hyperlink ref="D14" r:id="rId86" xr:uid="{E64F4CB3-D107-4FC7-873B-5972AE499FE0}"/>
+    <hyperlink ref="D38" r:id="rId87" xr:uid="{8E65010B-2C33-4239-8EF6-39EAED7C0283}"/>
+    <hyperlink ref="D40" r:id="rId88" xr:uid="{5DD0B867-ADD4-488C-AA65-40BC7859FEB2}"/>
+    <hyperlink ref="D15" r:id="rId89" xr:uid="{8627A31F-FB4E-4B7F-AB07-2A10A4544BB5}"/>
+    <hyperlink ref="D27" r:id="rId90" xr:uid="{4315DE0F-8456-46B1-9E0D-F0717366F43B}"/>
+    <hyperlink ref="D20" r:id="rId91" xr:uid="{FA01B41C-55E5-4FC9-8C9E-47489BA8931A}"/>
+    <hyperlink ref="D41" r:id="rId92" xr:uid="{1C5E8816-F929-4F99-86A8-FE1534714FFD}"/>
+    <hyperlink ref="D12" r:id="rId93" xr:uid="{62A89178-3127-415B-8D51-47D76EB6122E}"/>
     <hyperlink ref="D7" r:id="rId94" xr:uid="{05FCE2E9-4D4A-42C7-AF59-FAD60736A926}"/>
-    <hyperlink ref="D28" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
-    <hyperlink ref="D27" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
+    <hyperlink ref="D29" r:id="rId95" xr:uid="{275587A9-E56F-464E-82C7-6281F57D5ACB}"/>
+    <hyperlink ref="D28" r:id="rId96" xr:uid="{37EBCB46-5244-4CC6-9130-D407D5578E8F}"/>
     <hyperlink ref="D10" r:id="rId97" xr:uid="{F79EBC96-0ECE-4254-BA5F-0AC0D0D65286}"/>
-    <hyperlink ref="D36" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
-    <hyperlink ref="D101" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
-    <hyperlink ref="D42" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
-    <hyperlink ref="D15" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
-    <hyperlink ref="D31" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
-    <hyperlink ref="D34" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
+    <hyperlink ref="D37" r:id="rId98" xr:uid="{48582F09-C978-4D07-977D-8D1C99A783C1}"/>
+    <hyperlink ref="D102" r:id="rId99" xr:uid="{19D6BA3F-C653-4CA3-9B51-C40D3B00ABF2}"/>
+    <hyperlink ref="D43" r:id="rId100" xr:uid="{63B4C3DE-2413-49E1-A923-0FCFE0E447EA}"/>
+    <hyperlink ref="D16" r:id="rId101" xr:uid="{99B2D4BE-8A84-4A9F-B1CC-A4A8597B5421}"/>
+    <hyperlink ref="D32" r:id="rId102" xr:uid="{FBF42924-54D2-4F3B-A3EE-AEBCE4B01F6B}"/>
+    <hyperlink ref="D35" r:id="rId103" xr:uid="{779F7641-1AED-4568-8848-C87D4BBAA5DD}"/>
     <hyperlink ref="D5" r:id="rId104" xr:uid="{C49D2F82-6F55-4099-AE47-E14FAA61B9B7}"/>
-    <hyperlink ref="D2" r:id="rId105" xr:uid="{3F224D90-2D39-4595-BDC2-96DA84D50B74}"/>
-    <hyperlink ref="D3" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
-    <hyperlink ref="D43" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
+    <hyperlink ref="D3" r:id="rId105" xr:uid="{3F224D90-2D39-4595-BDC2-96DA84D50B74}"/>
+    <hyperlink ref="D11" r:id="rId106" xr:uid="{A7E9541E-4739-4EDA-ACF7-0AB9D086FDA7}"/>
+    <hyperlink ref="D44" r:id="rId107" xr:uid="{31B8AE7B-397C-4929-B840-DEA6FE5D8502}"/>
     <hyperlink ref="D6" r:id="rId108" xr:uid="{04015E96-820B-44AB-867E-CD943F1AB774}"/>
     <hyperlink ref="D9" r:id="rId109" xr:uid="{00163CED-1DCE-46E2-937D-525A9ABF7D66}"/>
   </hyperlinks>
@@ -6088,13 +6078,13 @@
         <v>125</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Shoutouts!A2:A1000, "*", Shoutouts!D2:D1000, "*", Shoutouts!E2:E1000, "&gt;=0")</f>
+        <f>COUNTIFS(Shoutouts!A3:A1001, "*", Shoutouts!D3:D1001, "*", Shoutouts!E3:E1001, "&gt;=0")</f>
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:C3" si="0">B4-B2</f>
@@ -6105,25 +6095,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <f>COUNTIF(Sange!A2:A1000, "*")</f>
         <v>126</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Shoutouts!A2:A1000, "*")</f>
+        <f>COUNTIFS(Shoutouts!A3:A1001, "*")</f>
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTIFS(Ideer!A2:A1000, "Sang", Ideer!B2:B1000, "*")</f>
@@ -6136,7 +6126,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <f>COUNTIF(Sange!B2:B1000, "*youtube*")</f>
@@ -6145,7 +6135,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5">
         <f>COUNTIF(Sange!B2:B1000, "*soundcloud*")</f>
@@ -6154,7 +6144,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6179,27 +6169,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6207,27 +6197,27 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6235,16 +6225,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
